--- a/Departments/CMPT.xlsx
+++ b/Departments/CMPT.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mitali\Current Project\Course Requisites\DEPTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mitali\Current project\CourseMaps\CourseMap_Sigma\Departments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9336475-88A7-4E9E-81A5-69948C6972B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EFDE1F5-8FBF-4FE2-AE72-3B60625AA3DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8206A307-E563-465C-B7D9-64A7D54AA2E0}"/>
+    <workbookView xWindow="720" yWindow="720" windowWidth="14400" windowHeight="7360" xr2:uid="{8206A307-E563-465C-B7D9-64A7D54AA2E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,12 +51,6 @@
     <t>Course_Name</t>
   </si>
   <si>
-    <t>PREREQ_COURSES</t>
-  </si>
-  <si>
-    <t>COREQ_COURSES</t>
-  </si>
-  <si>
     <t>Acad_Group</t>
   </si>
   <si>
@@ -1879,6 +1873,12 @@
   </si>
   <si>
     <t>STAT 271 - Probability and Statistics for Computing Science</t>
+  </si>
+  <si>
+    <t>Prerequisites</t>
+  </si>
+  <si>
+    <t>CoRequisites</t>
   </si>
 </sst>
 </file>
@@ -2233,7 +2233,7 @@
   <dimension ref="A1:I206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I206"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2252,5712 +2252,5712 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>612</v>
+      </c>
+      <c r="F1" t="s">
+        <v>613</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
         <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
         <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
         <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
         <v>27</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
         <v>30</v>
       </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
         <v>31</v>
-      </c>
-      <c r="E6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
         <v>34</v>
       </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" t="s">
-        <v>36</v>
-      </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
         <v>37</v>
       </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
         <v>38</v>
-      </c>
-      <c r="E8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
         <v>41</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" t="s">
         <v>44</v>
       </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
         <v>45</v>
-      </c>
-      <c r="E10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" t="s">
         <v>54</v>
       </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
         <v>55</v>
-      </c>
-      <c r="E14" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" t="s">
         <v>58</v>
       </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
         <v>59</v>
-      </c>
-      <c r="E15" t="s">
-        <v>60</v>
-      </c>
-      <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" t="s">
         <v>62</v>
       </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
         <v>63</v>
-      </c>
-      <c r="E16" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" t="s">
         <v>66</v>
       </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
         <v>67</v>
-      </c>
-      <c r="E17" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" t="s">
         <v>70</v>
       </c>
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
         <v>71</v>
-      </c>
-      <c r="E18" t="s">
-        <v>72</v>
-      </c>
-      <c r="F18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
         <v>74</v>
-      </c>
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s">
-        <v>75</v>
-      </c>
-      <c r="E19" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
         <v>77</v>
-      </c>
-      <c r="B20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" t="s">
-        <v>78</v>
-      </c>
-      <c r="E20" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
         <v>80</v>
-      </c>
-      <c r="B21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s">
-        <v>81</v>
-      </c>
-      <c r="E21" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" t="s">
         <v>83</v>
       </c>
-      <c r="B22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="F22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
         <v>84</v>
-      </c>
-      <c r="E22" t="s">
-        <v>85</v>
-      </c>
-      <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H23" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" t="s">
         <v>89</v>
       </c>
-      <c r="B24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="F24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
         <v>90</v>
-      </c>
-      <c r="E24" t="s">
-        <v>91</v>
-      </c>
-      <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" t="s">
-        <v>16</v>
-      </c>
-      <c r="I24" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25" t="s">
         <v>93</v>
       </c>
-      <c r="B25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s">
-        <v>94</v>
-      </c>
-      <c r="E25" t="s">
-        <v>95</v>
-      </c>
       <c r="F25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E26" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" t="s">
+        <v>97</v>
+      </c>
+      <c r="E27" t="s">
         <v>98</v>
       </c>
-      <c r="B27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="F27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
         <v>99</v>
-      </c>
-      <c r="E27" t="s">
-        <v>100</v>
-      </c>
-      <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H27" t="s">
-        <v>16</v>
-      </c>
-      <c r="I27" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" t="s">
         <v>102</v>
       </c>
-      <c r="B28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="F28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
         <v>103</v>
-      </c>
-      <c r="E28" t="s">
-        <v>104</v>
-      </c>
-      <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s">
-        <v>15</v>
-      </c>
-      <c r="H28" t="s">
-        <v>16</v>
-      </c>
-      <c r="I28" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
+        <v>104</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" t="s">
+        <v>105</v>
+      </c>
+      <c r="E29" t="s">
         <v>106</v>
       </c>
-      <c r="B29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="F29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
         <v>107</v>
-      </c>
-      <c r="E29" t="s">
-        <v>108</v>
-      </c>
-      <c r="F29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H29" t="s">
-        <v>16</v>
-      </c>
-      <c r="I29" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
+        <v>108</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" t="s">
+        <v>109</v>
+      </c>
+      <c r="E30" t="s">
         <v>110</v>
       </c>
-      <c r="B30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="F30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
         <v>111</v>
-      </c>
-      <c r="E30" t="s">
-        <v>112</v>
-      </c>
-      <c r="F30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H30" t="s">
-        <v>16</v>
-      </c>
-      <c r="I30" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E31" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H31" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
+        <v>114</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" t="s">
+        <v>115</v>
+      </c>
+      <c r="E32" t="s">
         <v>116</v>
       </c>
-      <c r="B32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="F32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
         <v>117</v>
-      </c>
-      <c r="E32" t="s">
-        <v>118</v>
-      </c>
-      <c r="F32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" t="s">
-        <v>15</v>
-      </c>
-      <c r="H32" t="s">
-        <v>16</v>
-      </c>
-      <c r="I32" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
+        <v>118</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" t="s">
+        <v>119</v>
+      </c>
+      <c r="E33" t="s">
+        <v>116</v>
+      </c>
+      <c r="F33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" t="s">
         <v>120</v>
-      </c>
-      <c r="B33" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" t="s">
-        <v>121</v>
-      </c>
-      <c r="E33" t="s">
-        <v>118</v>
-      </c>
-      <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H33" t="s">
-        <v>16</v>
-      </c>
-      <c r="I33" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
+        <v>121</v>
+      </c>
+      <c r="E34" t="s">
+        <v>122</v>
+      </c>
+      <c r="F34" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
         <v>123</v>
-      </c>
-      <c r="E34" t="s">
-        <v>124</v>
-      </c>
-      <c r="F34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H34" t="s">
-        <v>16</v>
-      </c>
-      <c r="I34" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
+        <v>124</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" t="s">
+        <v>125</v>
+      </c>
+      <c r="E35" t="s">
         <v>126</v>
       </c>
-      <c r="B35" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="F35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" t="s">
         <v>127</v>
-      </c>
-      <c r="E35" t="s">
-        <v>128</v>
-      </c>
-      <c r="F35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" t="s">
-        <v>15</v>
-      </c>
-      <c r="H35" t="s">
-        <v>16</v>
-      </c>
-      <c r="I35" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" t="s">
+        <v>129</v>
+      </c>
+      <c r="E36" t="s">
         <v>11</v>
       </c>
-      <c r="D36" t="s">
-        <v>131</v>
-      </c>
-      <c r="E36" t="s">
-        <v>13</v>
-      </c>
       <c r="F36" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G36" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" t="s">
+        <v>14</v>
+      </c>
+      <c r="I36" t="s">
         <v>15</v>
-      </c>
-      <c r="H36" t="s">
-        <v>16</v>
-      </c>
-      <c r="I36" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
+        <v>130</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" t="s">
+        <v>131</v>
+      </c>
+      <c r="E37" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37" t="s">
         <v>132</v>
-      </c>
-      <c r="B37" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" t="s">
-        <v>133</v>
-      </c>
-      <c r="E37" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" t="s">
-        <v>15</v>
-      </c>
-      <c r="H37" t="s">
-        <v>16</v>
-      </c>
-      <c r="I37" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
+        <v>133</v>
+      </c>
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" t="s">
+        <v>134</v>
+      </c>
+      <c r="E38" t="s">
         <v>135</v>
       </c>
-      <c r="B38" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="F38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38" t="s">
         <v>136</v>
-      </c>
-      <c r="E38" t="s">
-        <v>137</v>
-      </c>
-      <c r="F38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" t="s">
-        <v>15</v>
-      </c>
-      <c r="H38" t="s">
-        <v>16</v>
-      </c>
-      <c r="I38" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
+        <v>137</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" t="s">
+        <v>138</v>
+      </c>
+      <c r="E39" t="s">
         <v>139</v>
       </c>
-      <c r="B39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="F39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39" t="s">
         <v>140</v>
-      </c>
-      <c r="E39" t="s">
-        <v>141</v>
-      </c>
-      <c r="F39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" t="s">
-        <v>15</v>
-      </c>
-      <c r="H39" t="s">
-        <v>16</v>
-      </c>
-      <c r="I39" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B40" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E40" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G40" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H40" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B41" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E41" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G41" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H41" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B42" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E42" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G42" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H42" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B43" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E43" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G43" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H43" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B44" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E44" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G44" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H44" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B45" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E45" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G45" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H45" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B46" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E46" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G46" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H46" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B47" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E47" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G47" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H47" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B48" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E48" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G48" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H48" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B49" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E49" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G49" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H49" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B50" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E50" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G50" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H50" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B51" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E51" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G51" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H51" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B52" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E52" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G52" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H52" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B53" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E53" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G53" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H53" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B54" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E54" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G54" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H54" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B55" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E55" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G55" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H55" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B56" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E56" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G56" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H56" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B57" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E57" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G57" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H57" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B58" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
+        <v>177</v>
+      </c>
+      <c r="D58" t="s">
+        <v>178</v>
+      </c>
+      <c r="E58" t="s">
         <v>179</v>
       </c>
-      <c r="D58" t="s">
+      <c r="F58" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
         <v>180</v>
       </c>
-      <c r="E58" t="s">
+      <c r="H58" t="s">
+        <v>177</v>
+      </c>
+      <c r="I58" t="s">
         <v>181</v>
-      </c>
-      <c r="F58" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" t="s">
-        <v>182</v>
-      </c>
-      <c r="H58" t="s">
-        <v>179</v>
-      </c>
-      <c r="I58" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
+        <v>182</v>
+      </c>
+      <c r="B59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" t="s">
+        <v>183</v>
+      </c>
+      <c r="D59" t="s">
         <v>184</v>
       </c>
-      <c r="B59" t="s">
-        <v>10</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="E59" t="s">
         <v>185</v>
       </c>
-      <c r="D59" t="s">
+      <c r="F59" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H59" t="s">
         <v>186</v>
       </c>
-      <c r="E59" t="s">
+      <c r="I59" t="s">
         <v>187</v>
-      </c>
-      <c r="F59" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" t="s">
-        <v>15</v>
-      </c>
-      <c r="H59" t="s">
-        <v>188</v>
-      </c>
-      <c r="I59" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
+        <v>188</v>
+      </c>
+      <c r="B60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" t="s">
+        <v>189</v>
+      </c>
+      <c r="E60" t="s">
+        <v>98</v>
+      </c>
+      <c r="F60" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" t="s">
+        <v>13</v>
+      </c>
+      <c r="H60" t="s">
+        <v>14</v>
+      </c>
+      <c r="I60" t="s">
         <v>190</v>
-      </c>
-      <c r="B60" t="s">
-        <v>10</v>
-      </c>
-      <c r="C60" t="s">
-        <v>11</v>
-      </c>
-      <c r="D60" t="s">
-        <v>191</v>
-      </c>
-      <c r="E60" t="s">
-        <v>100</v>
-      </c>
-      <c r="F60" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" t="s">
-        <v>15</v>
-      </c>
-      <c r="H60" t="s">
-        <v>16</v>
-      </c>
-      <c r="I60" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
+        <v>191</v>
+      </c>
+      <c r="B61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" t="s">
+        <v>192</v>
+      </c>
+      <c r="D61" t="s">
         <v>193</v>
       </c>
-      <c r="B61" t="s">
-        <v>10</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="E61" t="s">
         <v>194</v>
       </c>
-      <c r="D61" t="s">
+      <c r="F61" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
+        <v>13</v>
+      </c>
+      <c r="H61" t="s">
         <v>195</v>
       </c>
-      <c r="E61" t="s">
+      <c r="I61" t="s">
         <v>196</v>
-      </c>
-      <c r="F61" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" t="s">
-        <v>15</v>
-      </c>
-      <c r="H61" t="s">
-        <v>197</v>
-      </c>
-      <c r="I61" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
+        <v>197</v>
+      </c>
+      <c r="B62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" t="s">
+        <v>177</v>
+      </c>
+      <c r="D62" t="s">
+        <v>198</v>
+      </c>
+      <c r="E62" t="s">
         <v>199</v>
       </c>
-      <c r="B62" t="s">
-        <v>10</v>
-      </c>
-      <c r="C62" t="s">
-        <v>179</v>
-      </c>
-      <c r="D62" t="s">
+      <c r="F62" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" t="s">
+        <v>180</v>
+      </c>
+      <c r="H62" t="s">
+        <v>177</v>
+      </c>
+      <c r="I62" t="s">
         <v>200</v>
-      </c>
-      <c r="E62" t="s">
-        <v>201</v>
-      </c>
-      <c r="F62" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" t="s">
-        <v>182</v>
-      </c>
-      <c r="H62" t="s">
-        <v>179</v>
-      </c>
-      <c r="I62" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
+        <v>201</v>
+      </c>
+      <c r="B63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" t="s">
+        <v>202</v>
+      </c>
+      <c r="D63" t="s">
         <v>203</v>
       </c>
-      <c r="B63" t="s">
-        <v>10</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="E63" t="s">
         <v>204</v>
       </c>
-      <c r="D63" t="s">
+      <c r="F63" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63" t="s">
         <v>205</v>
       </c>
-      <c r="E63" t="s">
+      <c r="H63" t="s">
         <v>206</v>
       </c>
-      <c r="F63" t="s">
-        <v>14</v>
-      </c>
-      <c r="G63" t="s">
+      <c r="I63" t="s">
         <v>207</v>
-      </c>
-      <c r="H63" t="s">
-        <v>208</v>
-      </c>
-      <c r="I63" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
+        <v>208</v>
+      </c>
+      <c r="B64" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" t="s">
+        <v>202</v>
+      </c>
+      <c r="D64" t="s">
+        <v>209</v>
+      </c>
+      <c r="E64" t="s">
         <v>210</v>
       </c>
-      <c r="B64" t="s">
-        <v>10</v>
-      </c>
-      <c r="C64" t="s">
-        <v>204</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="F64" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" t="s">
+        <v>205</v>
+      </c>
+      <c r="H64" t="s">
+        <v>206</v>
+      </c>
+      <c r="I64" t="s">
         <v>211</v>
-      </c>
-      <c r="E64" t="s">
-        <v>212</v>
-      </c>
-      <c r="F64" t="s">
-        <v>14</v>
-      </c>
-      <c r="G64" t="s">
-        <v>207</v>
-      </c>
-      <c r="H64" t="s">
-        <v>208</v>
-      </c>
-      <c r="I64" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
+        <v>212</v>
+      </c>
+      <c r="B65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" t="s">
+        <v>202</v>
+      </c>
+      <c r="D65" t="s">
+        <v>213</v>
+      </c>
+      <c r="E65" t="s">
         <v>214</v>
       </c>
-      <c r="B65" t="s">
-        <v>10</v>
-      </c>
-      <c r="C65" t="s">
-        <v>204</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="F65" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" t="s">
+        <v>205</v>
+      </c>
+      <c r="H65" t="s">
+        <v>206</v>
+      </c>
+      <c r="I65" t="s">
         <v>215</v>
-      </c>
-      <c r="E65" t="s">
-        <v>216</v>
-      </c>
-      <c r="F65" t="s">
-        <v>14</v>
-      </c>
-      <c r="G65" t="s">
-        <v>207</v>
-      </c>
-      <c r="H65" t="s">
-        <v>208</v>
-      </c>
-      <c r="I65" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B66" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
+        <v>216</v>
+      </c>
+      <c r="D66" t="s">
+        <v>217</v>
+      </c>
+      <c r="E66" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" t="s">
+        <v>216</v>
+      </c>
+      <c r="H66" t="s">
         <v>218</v>
-      </c>
-      <c r="D66" t="s">
-        <v>219</v>
-      </c>
-      <c r="E66" t="s">
-        <v>14</v>
-      </c>
-      <c r="F66" t="s">
-        <v>14</v>
-      </c>
-      <c r="G66" t="s">
-        <v>218</v>
-      </c>
-      <c r="H66" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
+        <v>219</v>
+      </c>
+      <c r="B67" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" t="s">
+        <v>220</v>
+      </c>
+      <c r="E67" t="s">
+        <v>54</v>
+      </c>
+      <c r="F67" t="s">
+        <v>12</v>
+      </c>
+      <c r="G67" t="s">
+        <v>13</v>
+      </c>
+      <c r="H67" t="s">
+        <v>14</v>
+      </c>
+      <c r="I67" t="s">
         <v>221</v>
-      </c>
-      <c r="B67" t="s">
-        <v>10</v>
-      </c>
-      <c r="C67" t="s">
-        <v>11</v>
-      </c>
-      <c r="D67" t="s">
-        <v>222</v>
-      </c>
-      <c r="E67" t="s">
-        <v>56</v>
-      </c>
-      <c r="F67" t="s">
-        <v>14</v>
-      </c>
-      <c r="G67" t="s">
-        <v>15</v>
-      </c>
-      <c r="H67" t="s">
-        <v>16</v>
-      </c>
-      <c r="I67" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
+        <v>222</v>
+      </c>
+      <c r="B68" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" t="s">
+        <v>223</v>
+      </c>
+      <c r="E68" t="s">
         <v>224</v>
       </c>
-      <c r="B68" t="s">
-        <v>10</v>
-      </c>
-      <c r="C68" t="s">
-        <v>11</v>
-      </c>
-      <c r="D68" t="s">
+      <c r="F68" t="s">
+        <v>12</v>
+      </c>
+      <c r="G68" t="s">
+        <v>13</v>
+      </c>
+      <c r="H68" t="s">
+        <v>14</v>
+      </c>
+      <c r="I68" t="s">
         <v>225</v>
-      </c>
-      <c r="E68" t="s">
-        <v>226</v>
-      </c>
-      <c r="F68" t="s">
-        <v>14</v>
-      </c>
-      <c r="G68" t="s">
-        <v>15</v>
-      </c>
-      <c r="H68" t="s">
-        <v>16</v>
-      </c>
-      <c r="I68" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
+        <v>226</v>
+      </c>
+      <c r="B69" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" t="s">
+        <v>227</v>
+      </c>
+      <c r="E69" t="s">
+        <v>54</v>
+      </c>
+      <c r="F69" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" t="s">
+        <v>13</v>
+      </c>
+      <c r="H69" t="s">
+        <v>14</v>
+      </c>
+      <c r="I69" t="s">
         <v>228</v>
-      </c>
-      <c r="B69" t="s">
-        <v>10</v>
-      </c>
-      <c r="C69" t="s">
-        <v>11</v>
-      </c>
-      <c r="D69" t="s">
-        <v>229</v>
-      </c>
-      <c r="E69" t="s">
-        <v>56</v>
-      </c>
-      <c r="F69" t="s">
-        <v>14</v>
-      </c>
-      <c r="G69" t="s">
-        <v>15</v>
-      </c>
-      <c r="H69" t="s">
-        <v>16</v>
-      </c>
-      <c r="I69" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
+        <v>229</v>
+      </c>
+      <c r="B70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" t="s">
+        <v>230</v>
+      </c>
+      <c r="E70" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70" t="s">
+        <v>12</v>
+      </c>
+      <c r="G70" t="s">
+        <v>13</v>
+      </c>
+      <c r="H70" t="s">
+        <v>14</v>
+      </c>
+      <c r="I70" t="s">
         <v>231</v>
-      </c>
-      <c r="B70" t="s">
-        <v>10</v>
-      </c>
-      <c r="C70" t="s">
-        <v>11</v>
-      </c>
-      <c r="D70" t="s">
-        <v>232</v>
-      </c>
-      <c r="E70" t="s">
-        <v>14</v>
-      </c>
-      <c r="F70" t="s">
-        <v>14</v>
-      </c>
-      <c r="G70" t="s">
-        <v>15</v>
-      </c>
-      <c r="H70" t="s">
-        <v>16</v>
-      </c>
-      <c r="I70" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
+        <v>232</v>
+      </c>
+      <c r="B71" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" t="s">
+        <v>233</v>
+      </c>
+      <c r="E71" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" t="s">
+        <v>12</v>
+      </c>
+      <c r="G71" t="s">
+        <v>13</v>
+      </c>
+      <c r="H71" t="s">
+        <v>14</v>
+      </c>
+      <c r="I71" t="s">
         <v>234</v>
-      </c>
-      <c r="B71" t="s">
-        <v>10</v>
-      </c>
-      <c r="C71" t="s">
-        <v>11</v>
-      </c>
-      <c r="D71" t="s">
-        <v>235</v>
-      </c>
-      <c r="E71" t="s">
-        <v>14</v>
-      </c>
-      <c r="F71" t="s">
-        <v>14</v>
-      </c>
-      <c r="G71" t="s">
-        <v>15</v>
-      </c>
-      <c r="H71" t="s">
-        <v>16</v>
-      </c>
-      <c r="I71" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
+        <v>235</v>
+      </c>
+      <c r="B72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" t="s">
+        <v>236</v>
+      </c>
+      <c r="E72" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72" t="s">
+        <v>12</v>
+      </c>
+      <c r="G72" t="s">
+        <v>13</v>
+      </c>
+      <c r="H72" t="s">
+        <v>14</v>
+      </c>
+      <c r="I72" t="s">
         <v>237</v>
-      </c>
-      <c r="B72" t="s">
-        <v>10</v>
-      </c>
-      <c r="C72" t="s">
-        <v>11</v>
-      </c>
-      <c r="D72" t="s">
-        <v>238</v>
-      </c>
-      <c r="E72" t="s">
-        <v>14</v>
-      </c>
-      <c r="F72" t="s">
-        <v>14</v>
-      </c>
-      <c r="G72" t="s">
-        <v>15</v>
-      </c>
-      <c r="H72" t="s">
-        <v>16</v>
-      </c>
-      <c r="I72" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
+        <v>238</v>
+      </c>
+      <c r="B73" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" t="s">
+        <v>239</v>
+      </c>
+      <c r="E73" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" t="s">
+        <v>12</v>
+      </c>
+      <c r="G73" t="s">
+        <v>13</v>
+      </c>
+      <c r="H73" t="s">
+        <v>14</v>
+      </c>
+      <c r="I73" t="s">
         <v>240</v>
-      </c>
-      <c r="B73" t="s">
-        <v>10</v>
-      </c>
-      <c r="C73" t="s">
-        <v>11</v>
-      </c>
-      <c r="D73" t="s">
-        <v>241</v>
-      </c>
-      <c r="E73" t="s">
-        <v>14</v>
-      </c>
-      <c r="F73" t="s">
-        <v>14</v>
-      </c>
-      <c r="G73" t="s">
-        <v>15</v>
-      </c>
-      <c r="H73" t="s">
-        <v>16</v>
-      </c>
-      <c r="I73" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
+        <v>241</v>
+      </c>
+      <c r="B74" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" t="s">
+        <v>242</v>
+      </c>
+      <c r="E74" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74" t="s">
+        <v>12</v>
+      </c>
+      <c r="G74" t="s">
+        <v>13</v>
+      </c>
+      <c r="H74" t="s">
+        <v>14</v>
+      </c>
+      <c r="I74" t="s">
         <v>243</v>
-      </c>
-      <c r="B74" t="s">
-        <v>10</v>
-      </c>
-      <c r="C74" t="s">
-        <v>11</v>
-      </c>
-      <c r="D74" t="s">
-        <v>244</v>
-      </c>
-      <c r="E74" t="s">
-        <v>14</v>
-      </c>
-      <c r="F74" t="s">
-        <v>14</v>
-      </c>
-      <c r="G74" t="s">
-        <v>15</v>
-      </c>
-      <c r="H74" t="s">
-        <v>16</v>
-      </c>
-      <c r="I74" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
+        <v>244</v>
+      </c>
+      <c r="B75" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" t="s">
+        <v>245</v>
+      </c>
+      <c r="E75" t="s">
         <v>246</v>
       </c>
-      <c r="B75" t="s">
-        <v>10</v>
-      </c>
-      <c r="C75" t="s">
-        <v>11</v>
-      </c>
-      <c r="D75" t="s">
+      <c r="F75" t="s">
+        <v>12</v>
+      </c>
+      <c r="G75" t="s">
+        <v>13</v>
+      </c>
+      <c r="H75" t="s">
+        <v>14</v>
+      </c>
+      <c r="I75" t="s">
         <v>247</v>
-      </c>
-      <c r="E75" t="s">
-        <v>248</v>
-      </c>
-      <c r="F75" t="s">
-        <v>14</v>
-      </c>
-      <c r="G75" t="s">
-        <v>15</v>
-      </c>
-      <c r="H75" t="s">
-        <v>16</v>
-      </c>
-      <c r="I75" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B76" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E76" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G76" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H76" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B77" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E77" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G77" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H77" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
+        <v>252</v>
+      </c>
+      <c r="B78" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" t="s">
+        <v>253</v>
+      </c>
+      <c r="E78" t="s">
+        <v>12</v>
+      </c>
+      <c r="F78" t="s">
+        <v>12</v>
+      </c>
+      <c r="G78" t="s">
+        <v>13</v>
+      </c>
+      <c r="H78" t="s">
+        <v>14</v>
+      </c>
+      <c r="I78" t="s">
         <v>254</v>
-      </c>
-      <c r="B78" t="s">
-        <v>10</v>
-      </c>
-      <c r="C78" t="s">
-        <v>11</v>
-      </c>
-      <c r="D78" t="s">
-        <v>255</v>
-      </c>
-      <c r="E78" t="s">
-        <v>14</v>
-      </c>
-      <c r="F78" t="s">
-        <v>14</v>
-      </c>
-      <c r="G78" t="s">
-        <v>15</v>
-      </c>
-      <c r="H78" t="s">
-        <v>16</v>
-      </c>
-      <c r="I78" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B79" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E79" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G79" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H79" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B80" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E80" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G80" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H80" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B81" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E81" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G81" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H81" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B82" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E82" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G82" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H82" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B83" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E83" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G83" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H83" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B84" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E84" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G84" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H84" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
+        <v>267</v>
+      </c>
+      <c r="B85" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" t="s">
+        <v>268</v>
+      </c>
+      <c r="E85" t="s">
         <v>269</v>
       </c>
-      <c r="B85" t="s">
-        <v>10</v>
-      </c>
-      <c r="C85" t="s">
-        <v>11</v>
-      </c>
-      <c r="D85" t="s">
+      <c r="F85" t="s">
+        <v>12</v>
+      </c>
+      <c r="G85" t="s">
+        <v>13</v>
+      </c>
+      <c r="H85" t="s">
+        <v>14</v>
+      </c>
+      <c r="I85" t="s">
         <v>270</v>
-      </c>
-      <c r="E85" t="s">
-        <v>271</v>
-      </c>
-      <c r="F85" t="s">
-        <v>14</v>
-      </c>
-      <c r="G85" t="s">
-        <v>15</v>
-      </c>
-      <c r="H85" t="s">
-        <v>16</v>
-      </c>
-      <c r="I85" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B86" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E86" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G86" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H86" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B87" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E87" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G87" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H87" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B88" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E88" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G88" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H88" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B89" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E89" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G89" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H89" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B90" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E90" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G90" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H90" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B91" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E91" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G91" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H91" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B92" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E92" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G92" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H92" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B93" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E93" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G93" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H93" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B94" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E94" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G94" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H94" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
+        <v>289</v>
+      </c>
+      <c r="B95" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" t="s">
+        <v>290</v>
+      </c>
+      <c r="E95" t="s">
+        <v>287</v>
+      </c>
+      <c r="F95" t="s">
+        <v>12</v>
+      </c>
+      <c r="G95" t="s">
+        <v>13</v>
+      </c>
+      <c r="H95" t="s">
+        <v>14</v>
+      </c>
+      <c r="I95" t="s">
         <v>291</v>
-      </c>
-      <c r="B95" t="s">
-        <v>10</v>
-      </c>
-      <c r="C95" t="s">
-        <v>11</v>
-      </c>
-      <c r="D95" t="s">
-        <v>292</v>
-      </c>
-      <c r="E95" t="s">
-        <v>289</v>
-      </c>
-      <c r="F95" t="s">
-        <v>14</v>
-      </c>
-      <c r="G95" t="s">
-        <v>15</v>
-      </c>
-      <c r="H95" t="s">
-        <v>16</v>
-      </c>
-      <c r="I95" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B96" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E96" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G96" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H96" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B97" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E97" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G97" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H97" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B98" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E98" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G98" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H98" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
+        <v>298</v>
+      </c>
+      <c r="B99" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" t="s">
+        <v>299</v>
+      </c>
+      <c r="D99" t="s">
         <v>300</v>
       </c>
-      <c r="B99" t="s">
-        <v>10</v>
-      </c>
-      <c r="C99" t="s">
+      <c r="E99" t="s">
         <v>301</v>
       </c>
-      <c r="D99" t="s">
+      <c r="F99" t="s">
         <v>302</v>
       </c>
-      <c r="E99" t="s">
+      <c r="G99" t="s">
+        <v>13</v>
+      </c>
+      <c r="H99" t="s">
         <v>303</v>
       </c>
-      <c r="F99" t="s">
+      <c r="I99" t="s">
         <v>304</v>
-      </c>
-      <c r="G99" t="s">
-        <v>15</v>
-      </c>
-      <c r="H99" t="s">
-        <v>305</v>
-      </c>
-      <c r="I99" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
+        <v>305</v>
+      </c>
+      <c r="B100" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" t="s">
+        <v>306</v>
+      </c>
+      <c r="E100" t="s">
         <v>307</v>
       </c>
-      <c r="B100" t="s">
-        <v>10</v>
-      </c>
-      <c r="C100" t="s">
-        <v>11</v>
-      </c>
-      <c r="D100" t="s">
+      <c r="F100" t="s">
+        <v>12</v>
+      </c>
+      <c r="G100" t="s">
+        <v>13</v>
+      </c>
+      <c r="H100" t="s">
+        <v>14</v>
+      </c>
+      <c r="I100" t="s">
         <v>308</v>
-      </c>
-      <c r="E100" t="s">
-        <v>309</v>
-      </c>
-      <c r="F100" t="s">
-        <v>14</v>
-      </c>
-      <c r="G100" t="s">
-        <v>15</v>
-      </c>
-      <c r="H100" t="s">
-        <v>16</v>
-      </c>
-      <c r="I100" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
+        <v>309</v>
+      </c>
+      <c r="B101" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" t="s">
+        <v>310</v>
+      </c>
+      <c r="E101" t="s">
+        <v>305</v>
+      </c>
+      <c r="F101" t="s">
+        <v>12</v>
+      </c>
+      <c r="G101" t="s">
+        <v>13</v>
+      </c>
+      <c r="H101" t="s">
+        <v>14</v>
+      </c>
+      <c r="I101" t="s">
         <v>311</v>
-      </c>
-      <c r="B101" t="s">
-        <v>10</v>
-      </c>
-      <c r="C101" t="s">
-        <v>11</v>
-      </c>
-      <c r="D101" t="s">
-        <v>312</v>
-      </c>
-      <c r="E101" t="s">
-        <v>307</v>
-      </c>
-      <c r="F101" t="s">
-        <v>14</v>
-      </c>
-      <c r="G101" t="s">
-        <v>15</v>
-      </c>
-      <c r="H101" t="s">
-        <v>16</v>
-      </c>
-      <c r="I101" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
+        <v>312</v>
+      </c>
+      <c r="B102" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" t="s">
+        <v>313</v>
+      </c>
+      <c r="E102" t="s">
         <v>314</v>
       </c>
-      <c r="B102" t="s">
-        <v>10</v>
-      </c>
-      <c r="C102" t="s">
-        <v>11</v>
-      </c>
-      <c r="D102" t="s">
+      <c r="F102" t="s">
+        <v>12</v>
+      </c>
+      <c r="G102" t="s">
+        <v>13</v>
+      </c>
+      <c r="H102" t="s">
+        <v>14</v>
+      </c>
+      <c r="I102" t="s">
         <v>315</v>
-      </c>
-      <c r="E102" t="s">
-        <v>316</v>
-      </c>
-      <c r="F102" t="s">
-        <v>14</v>
-      </c>
-      <c r="G102" t="s">
-        <v>15</v>
-      </c>
-      <c r="H102" t="s">
-        <v>16</v>
-      </c>
-      <c r="I102" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
+        <v>316</v>
+      </c>
+      <c r="B103" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" t="s">
+        <v>317</v>
+      </c>
+      <c r="E103" t="s">
         <v>318</v>
       </c>
-      <c r="B103" t="s">
-        <v>10</v>
-      </c>
-      <c r="C103" t="s">
-        <v>11</v>
-      </c>
-      <c r="D103" t="s">
+      <c r="F103" t="s">
         <v>319</v>
       </c>
-      <c r="E103" t="s">
+      <c r="G103" t="s">
+        <v>13</v>
+      </c>
+      <c r="H103" t="s">
+        <v>14</v>
+      </c>
+      <c r="I103" t="s">
         <v>320</v>
-      </c>
-      <c r="F103" t="s">
-        <v>321</v>
-      </c>
-      <c r="G103" t="s">
-        <v>15</v>
-      </c>
-      <c r="H103" t="s">
-        <v>16</v>
-      </c>
-      <c r="I103" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B104" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E104" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G104" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H104" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
+        <v>323</v>
+      </c>
+      <c r="B105" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" t="s">
+        <v>324</v>
+      </c>
+      <c r="E105" t="s">
+        <v>106</v>
+      </c>
+      <c r="F105" t="s">
+        <v>12</v>
+      </c>
+      <c r="G105" t="s">
+        <v>13</v>
+      </c>
+      <c r="H105" t="s">
+        <v>14</v>
+      </c>
+      <c r="I105" t="s">
         <v>325</v>
-      </c>
-      <c r="B105" t="s">
-        <v>10</v>
-      </c>
-      <c r="C105" t="s">
-        <v>11</v>
-      </c>
-      <c r="D105" t="s">
-        <v>326</v>
-      </c>
-      <c r="E105" t="s">
-        <v>108</v>
-      </c>
-      <c r="F105" t="s">
-        <v>14</v>
-      </c>
-      <c r="G105" t="s">
-        <v>15</v>
-      </c>
-      <c r="H105" t="s">
-        <v>16</v>
-      </c>
-      <c r="I105" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B106" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E106" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G106" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H106" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
+        <v>328</v>
+      </c>
+      <c r="B107" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" t="s">
+        <v>329</v>
+      </c>
+      <c r="E107" t="s">
+        <v>318</v>
+      </c>
+      <c r="F107" t="s">
+        <v>12</v>
+      </c>
+      <c r="G107" t="s">
+        <v>13</v>
+      </c>
+      <c r="H107" t="s">
+        <v>14</v>
+      </c>
+      <c r="I107" t="s">
         <v>330</v>
-      </c>
-      <c r="B107" t="s">
-        <v>10</v>
-      </c>
-      <c r="C107" t="s">
-        <v>11</v>
-      </c>
-      <c r="D107" t="s">
-        <v>331</v>
-      </c>
-      <c r="E107" t="s">
-        <v>320</v>
-      </c>
-      <c r="F107" t="s">
-        <v>14</v>
-      </c>
-      <c r="G107" t="s">
-        <v>15</v>
-      </c>
-      <c r="H107" t="s">
-        <v>16</v>
-      </c>
-      <c r="I107" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
+        <v>331</v>
+      </c>
+      <c r="B108" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" t="s">
+        <v>332</v>
+      </c>
+      <c r="E108" t="s">
         <v>333</v>
       </c>
-      <c r="B108" t="s">
-        <v>10</v>
-      </c>
-      <c r="C108" t="s">
-        <v>11</v>
-      </c>
-      <c r="D108" t="s">
+      <c r="F108" t="s">
+        <v>12</v>
+      </c>
+      <c r="G108" t="s">
+        <v>13</v>
+      </c>
+      <c r="H108" t="s">
+        <v>14</v>
+      </c>
+      <c r="I108" t="s">
         <v>334</v>
-      </c>
-      <c r="E108" t="s">
-        <v>335</v>
-      </c>
-      <c r="F108" t="s">
-        <v>14</v>
-      </c>
-      <c r="G108" t="s">
-        <v>15</v>
-      </c>
-      <c r="H108" t="s">
-        <v>16</v>
-      </c>
-      <c r="I108" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
+        <v>335</v>
+      </c>
+      <c r="B109" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" t="s">
+        <v>336</v>
+      </c>
+      <c r="E109" t="s">
+        <v>98</v>
+      </c>
+      <c r="F109" t="s">
+        <v>12</v>
+      </c>
+      <c r="G109" t="s">
+        <v>13</v>
+      </c>
+      <c r="H109" t="s">
+        <v>14</v>
+      </c>
+      <c r="I109" t="s">
         <v>337</v>
-      </c>
-      <c r="B109" t="s">
-        <v>10</v>
-      </c>
-      <c r="C109" t="s">
-        <v>11</v>
-      </c>
-      <c r="D109" t="s">
-        <v>338</v>
-      </c>
-      <c r="E109" t="s">
-        <v>100</v>
-      </c>
-      <c r="F109" t="s">
-        <v>14</v>
-      </c>
-      <c r="G109" t="s">
-        <v>15</v>
-      </c>
-      <c r="H109" t="s">
-        <v>16</v>
-      </c>
-      <c r="I109" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
+        <v>338</v>
+      </c>
+      <c r="B110" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" t="s">
+        <v>339</v>
+      </c>
+      <c r="E110" t="s">
         <v>340</v>
       </c>
-      <c r="B110" t="s">
-        <v>10</v>
-      </c>
-      <c r="C110" t="s">
-        <v>11</v>
-      </c>
-      <c r="D110" t="s">
+      <c r="F110" t="s">
+        <v>12</v>
+      </c>
+      <c r="G110" t="s">
+        <v>13</v>
+      </c>
+      <c r="H110" t="s">
+        <v>14</v>
+      </c>
+      <c r="I110" t="s">
         <v>341</v>
-      </c>
-      <c r="E110" t="s">
-        <v>342</v>
-      </c>
-      <c r="F110" t="s">
-        <v>14</v>
-      </c>
-      <c r="G110" t="s">
-        <v>15</v>
-      </c>
-      <c r="H110" t="s">
-        <v>16</v>
-      </c>
-      <c r="I110" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
+        <v>342</v>
+      </c>
+      <c r="B111" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" t="s">
+        <v>343</v>
+      </c>
+      <c r="E111" t="s">
         <v>344</v>
       </c>
-      <c r="B111" t="s">
-        <v>10</v>
-      </c>
-      <c r="C111" t="s">
-        <v>11</v>
-      </c>
-      <c r="D111" t="s">
+      <c r="F111" t="s">
+        <v>12</v>
+      </c>
+      <c r="G111" t="s">
+        <v>13</v>
+      </c>
+      <c r="H111" t="s">
+        <v>14</v>
+      </c>
+      <c r="I111" t="s">
         <v>345</v>
-      </c>
-      <c r="E111" t="s">
-        <v>346</v>
-      </c>
-      <c r="F111" t="s">
-        <v>14</v>
-      </c>
-      <c r="G111" t="s">
-        <v>15</v>
-      </c>
-      <c r="H111" t="s">
-        <v>16</v>
-      </c>
-      <c r="I111" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
+        <v>346</v>
+      </c>
+      <c r="B112" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" t="s">
+        <v>347</v>
+      </c>
+      <c r="E112" t="s">
+        <v>18</v>
+      </c>
+      <c r="F112" t="s">
+        <v>12</v>
+      </c>
+      <c r="G112" t="s">
+        <v>13</v>
+      </c>
+      <c r="H112" t="s">
+        <v>14</v>
+      </c>
+      <c r="I112" t="s">
         <v>348</v>
-      </c>
-      <c r="B112" t="s">
-        <v>10</v>
-      </c>
-      <c r="C112" t="s">
-        <v>11</v>
-      </c>
-      <c r="D112" t="s">
-        <v>349</v>
-      </c>
-      <c r="E112" t="s">
-        <v>20</v>
-      </c>
-      <c r="F112" t="s">
-        <v>14</v>
-      </c>
-      <c r="G112" t="s">
-        <v>15</v>
-      </c>
-      <c r="H112" t="s">
-        <v>16</v>
-      </c>
-      <c r="I112" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B113" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E113" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F113" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G113" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H113" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I113" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
+        <v>351</v>
+      </c>
+      <c r="B114" t="s">
+        <v>8</v>
+      </c>
+      <c r="C114" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" t="s">
+        <v>352</v>
+      </c>
+      <c r="E114" t="s">
         <v>353</v>
       </c>
-      <c r="B114" t="s">
-        <v>10</v>
-      </c>
-      <c r="C114" t="s">
-        <v>11</v>
-      </c>
-      <c r="D114" t="s">
+      <c r="F114" t="s">
+        <v>12</v>
+      </c>
+      <c r="G114" t="s">
+        <v>13</v>
+      </c>
+      <c r="H114" t="s">
+        <v>14</v>
+      </c>
+      <c r="I114" t="s">
         <v>354</v>
-      </c>
-      <c r="E114" t="s">
-        <v>355</v>
-      </c>
-      <c r="F114" t="s">
-        <v>14</v>
-      </c>
-      <c r="G114" t="s">
-        <v>15</v>
-      </c>
-      <c r="H114" t="s">
-        <v>16</v>
-      </c>
-      <c r="I114" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
+        <v>355</v>
+      </c>
+      <c r="B115" t="s">
+        <v>8</v>
+      </c>
+      <c r="C115" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" t="s">
+        <v>356</v>
+      </c>
+      <c r="E115" t="s">
         <v>357</v>
       </c>
-      <c r="B115" t="s">
-        <v>10</v>
-      </c>
-      <c r="C115" t="s">
-        <v>11</v>
-      </c>
-      <c r="D115" t="s">
+      <c r="F115" t="s">
+        <v>12</v>
+      </c>
+      <c r="G115" t="s">
+        <v>13</v>
+      </c>
+      <c r="H115" t="s">
+        <v>14</v>
+      </c>
+      <c r="I115" t="s">
         <v>358</v>
-      </c>
-      <c r="E115" t="s">
-        <v>359</v>
-      </c>
-      <c r="F115" t="s">
-        <v>14</v>
-      </c>
-      <c r="G115" t="s">
-        <v>15</v>
-      </c>
-      <c r="H115" t="s">
-        <v>16</v>
-      </c>
-      <c r="I115" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
+        <v>359</v>
+      </c>
+      <c r="B116" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" t="s">
+        <v>360</v>
+      </c>
+      <c r="E116" t="s">
+        <v>12</v>
+      </c>
+      <c r="F116" t="s">
+        <v>12</v>
+      </c>
+      <c r="G116" t="s">
+        <v>13</v>
+      </c>
+      <c r="H116" t="s">
+        <v>14</v>
+      </c>
+      <c r="I116" t="s">
         <v>361</v>
-      </c>
-      <c r="B116" t="s">
-        <v>10</v>
-      </c>
-      <c r="C116" t="s">
-        <v>11</v>
-      </c>
-      <c r="D116" t="s">
-        <v>362</v>
-      </c>
-      <c r="E116" t="s">
-        <v>14</v>
-      </c>
-      <c r="F116" t="s">
-        <v>14</v>
-      </c>
-      <c r="G116" t="s">
-        <v>15</v>
-      </c>
-      <c r="H116" t="s">
-        <v>16</v>
-      </c>
-      <c r="I116" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
+        <v>362</v>
+      </c>
+      <c r="B117" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" t="s">
+        <v>363</v>
+      </c>
+      <c r="E117" t="s">
         <v>364</v>
       </c>
-      <c r="B117" t="s">
-        <v>10</v>
-      </c>
-      <c r="C117" t="s">
-        <v>11</v>
-      </c>
-      <c r="D117" t="s">
+      <c r="F117" t="s">
+        <v>12</v>
+      </c>
+      <c r="G117" t="s">
+        <v>13</v>
+      </c>
+      <c r="H117" t="s">
+        <v>14</v>
+      </c>
+      <c r="I117" t="s">
         <v>365</v>
-      </c>
-      <c r="E117" t="s">
-        <v>366</v>
-      </c>
-      <c r="F117" t="s">
-        <v>14</v>
-      </c>
-      <c r="G117" t="s">
-        <v>15</v>
-      </c>
-      <c r="H117" t="s">
-        <v>16</v>
-      </c>
-      <c r="I117" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
+        <v>366</v>
+      </c>
+      <c r="B118" t="s">
+        <v>8</v>
+      </c>
+      <c r="C118" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" t="s">
+        <v>367</v>
+      </c>
+      <c r="E118" t="s">
         <v>368</v>
       </c>
-      <c r="B118" t="s">
-        <v>10</v>
-      </c>
-      <c r="C118" t="s">
-        <v>11</v>
-      </c>
-      <c r="D118" t="s">
+      <c r="F118" t="s">
+        <v>12</v>
+      </c>
+      <c r="G118" t="s">
+        <v>13</v>
+      </c>
+      <c r="H118" t="s">
+        <v>14</v>
+      </c>
+      <c r="I118" t="s">
         <v>369</v>
-      </c>
-      <c r="E118" t="s">
-        <v>370</v>
-      </c>
-      <c r="F118" t="s">
-        <v>14</v>
-      </c>
-      <c r="G118" t="s">
-        <v>15</v>
-      </c>
-      <c r="H118" t="s">
-        <v>16</v>
-      </c>
-      <c r="I118" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
+        <v>370</v>
+      </c>
+      <c r="B119" t="s">
+        <v>8</v>
+      </c>
+      <c r="C119" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" t="s">
+        <v>371</v>
+      </c>
+      <c r="E119" t="s">
         <v>372</v>
       </c>
-      <c r="B119" t="s">
-        <v>10</v>
-      </c>
-      <c r="C119" t="s">
-        <v>11</v>
-      </c>
-      <c r="D119" t="s">
+      <c r="F119" t="s">
+        <v>12</v>
+      </c>
+      <c r="G119" t="s">
+        <v>13</v>
+      </c>
+      <c r="H119" t="s">
+        <v>14</v>
+      </c>
+      <c r="I119" t="s">
         <v>373</v>
-      </c>
-      <c r="E119" t="s">
-        <v>374</v>
-      </c>
-      <c r="F119" t="s">
-        <v>14</v>
-      </c>
-      <c r="G119" t="s">
-        <v>15</v>
-      </c>
-      <c r="H119" t="s">
-        <v>16</v>
-      </c>
-      <c r="I119" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
+        <v>374</v>
+      </c>
+      <c r="B120" t="s">
+        <v>8</v>
+      </c>
+      <c r="C120" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" t="s">
+        <v>375</v>
+      </c>
+      <c r="E120" t="s">
+        <v>18</v>
+      </c>
+      <c r="F120" t="s">
+        <v>12</v>
+      </c>
+      <c r="G120" t="s">
+        <v>13</v>
+      </c>
+      <c r="H120" t="s">
+        <v>14</v>
+      </c>
+      <c r="I120" t="s">
         <v>376</v>
-      </c>
-      <c r="B120" t="s">
-        <v>10</v>
-      </c>
-      <c r="C120" t="s">
-        <v>11</v>
-      </c>
-      <c r="D120" t="s">
-        <v>377</v>
-      </c>
-      <c r="E120" t="s">
-        <v>20</v>
-      </c>
-      <c r="F120" t="s">
-        <v>14</v>
-      </c>
-      <c r="G120" t="s">
-        <v>15</v>
-      </c>
-      <c r="H120" t="s">
-        <v>16</v>
-      </c>
-      <c r="I120" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
+        <v>377</v>
+      </c>
+      <c r="B121" t="s">
+        <v>8</v>
+      </c>
+      <c r="C121" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" t="s">
+        <v>378</v>
+      </c>
+      <c r="E121" t="s">
         <v>379</v>
       </c>
-      <c r="B121" t="s">
-        <v>10</v>
-      </c>
-      <c r="C121" t="s">
-        <v>11</v>
-      </c>
-      <c r="D121" t="s">
+      <c r="F121" t="s">
+        <v>12</v>
+      </c>
+      <c r="G121" t="s">
+        <v>13</v>
+      </c>
+      <c r="H121" t="s">
+        <v>14</v>
+      </c>
+      <c r="I121" t="s">
         <v>380</v>
-      </c>
-      <c r="E121" t="s">
-        <v>381</v>
-      </c>
-      <c r="F121" t="s">
-        <v>14</v>
-      </c>
-      <c r="G121" t="s">
-        <v>15</v>
-      </c>
-      <c r="H121" t="s">
-        <v>16</v>
-      </c>
-      <c r="I121" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
+        <v>381</v>
+      </c>
+      <c r="B122" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" t="s">
+        <v>382</v>
+      </c>
+      <c r="E122" t="s">
         <v>383</v>
       </c>
-      <c r="B122" t="s">
-        <v>10</v>
-      </c>
-      <c r="C122" t="s">
-        <v>11</v>
-      </c>
-      <c r="D122" t="s">
+      <c r="F122" t="s">
+        <v>12</v>
+      </c>
+      <c r="G122" t="s">
+        <v>13</v>
+      </c>
+      <c r="H122" t="s">
+        <v>14</v>
+      </c>
+      <c r="I122" t="s">
         <v>384</v>
-      </c>
-      <c r="E122" t="s">
-        <v>385</v>
-      </c>
-      <c r="F122" t="s">
-        <v>14</v>
-      </c>
-      <c r="G122" t="s">
-        <v>15</v>
-      </c>
-      <c r="H122" t="s">
-        <v>16</v>
-      </c>
-      <c r="I122" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
+        <v>385</v>
+      </c>
+      <c r="B123" t="s">
+        <v>8</v>
+      </c>
+      <c r="C123" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" t="s">
+        <v>386</v>
+      </c>
+      <c r="E123" t="s">
+        <v>18</v>
+      </c>
+      <c r="F123" t="s">
+        <v>12</v>
+      </c>
+      <c r="G123" t="s">
+        <v>13</v>
+      </c>
+      <c r="H123" t="s">
+        <v>14</v>
+      </c>
+      <c r="I123" t="s">
         <v>387</v>
-      </c>
-      <c r="B123" t="s">
-        <v>10</v>
-      </c>
-      <c r="C123" t="s">
-        <v>11</v>
-      </c>
-      <c r="D123" t="s">
-        <v>388</v>
-      </c>
-      <c r="E123" t="s">
-        <v>20</v>
-      </c>
-      <c r="F123" t="s">
-        <v>14</v>
-      </c>
-      <c r="G123" t="s">
-        <v>15</v>
-      </c>
-      <c r="H123" t="s">
-        <v>16</v>
-      </c>
-      <c r="I123" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
+        <v>388</v>
+      </c>
+      <c r="B124" t="s">
+        <v>8</v>
+      </c>
+      <c r="C124" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" t="s">
+        <v>389</v>
+      </c>
+      <c r="E124" t="s">
         <v>390</v>
       </c>
-      <c r="B124" t="s">
-        <v>10</v>
-      </c>
-      <c r="C124" t="s">
-        <v>11</v>
-      </c>
-      <c r="D124" t="s">
+      <c r="F124" t="s">
+        <v>12</v>
+      </c>
+      <c r="G124" t="s">
+        <v>13</v>
+      </c>
+      <c r="H124" t="s">
+        <v>14</v>
+      </c>
+      <c r="I124" t="s">
         <v>391</v>
-      </c>
-      <c r="E124" t="s">
-        <v>392</v>
-      </c>
-      <c r="F124" t="s">
-        <v>14</v>
-      </c>
-      <c r="G124" t="s">
-        <v>15</v>
-      </c>
-      <c r="H124" t="s">
-        <v>16</v>
-      </c>
-      <c r="I124" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
+        <v>392</v>
+      </c>
+      <c r="B125" t="s">
+        <v>8</v>
+      </c>
+      <c r="C125" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" t="s">
+        <v>393</v>
+      </c>
+      <c r="E125" t="s">
+        <v>54</v>
+      </c>
+      <c r="F125" t="s">
+        <v>12</v>
+      </c>
+      <c r="G125" t="s">
+        <v>13</v>
+      </c>
+      <c r="H125" t="s">
+        <v>14</v>
+      </c>
+      <c r="I125" t="s">
         <v>394</v>
-      </c>
-      <c r="B125" t="s">
-        <v>10</v>
-      </c>
-      <c r="C125" t="s">
-        <v>11</v>
-      </c>
-      <c r="D125" t="s">
-        <v>395</v>
-      </c>
-      <c r="E125" t="s">
-        <v>56</v>
-      </c>
-      <c r="F125" t="s">
-        <v>14</v>
-      </c>
-      <c r="G125" t="s">
-        <v>15</v>
-      </c>
-      <c r="H125" t="s">
-        <v>16</v>
-      </c>
-      <c r="I125" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
+        <v>395</v>
+      </c>
+      <c r="B126" t="s">
+        <v>8</v>
+      </c>
+      <c r="C126" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" t="s">
+        <v>396</v>
+      </c>
+      <c r="E126" t="s">
         <v>397</v>
       </c>
-      <c r="B126" t="s">
-        <v>10</v>
-      </c>
-      <c r="C126" t="s">
-        <v>11</v>
-      </c>
-      <c r="D126" t="s">
+      <c r="F126" t="s">
+        <v>12</v>
+      </c>
+      <c r="G126" t="s">
+        <v>13</v>
+      </c>
+      <c r="H126" t="s">
+        <v>14</v>
+      </c>
+      <c r="I126" t="s">
         <v>398</v>
-      </c>
-      <c r="E126" t="s">
-        <v>399</v>
-      </c>
-      <c r="F126" t="s">
-        <v>14</v>
-      </c>
-      <c r="G126" t="s">
-        <v>15</v>
-      </c>
-      <c r="H126" t="s">
-        <v>16</v>
-      </c>
-      <c r="I126" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B127" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" t="s">
+        <v>399</v>
+      </c>
+      <c r="E127" t="s">
         <v>11</v>
       </c>
-      <c r="D127" t="s">
-        <v>401</v>
-      </c>
-      <c r="E127" t="s">
-        <v>13</v>
-      </c>
       <c r="F127" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G127" t="s">
+        <v>13</v>
+      </c>
+      <c r="H127" t="s">
+        <v>14</v>
+      </c>
+      <c r="I127" t="s">
         <v>15</v>
-      </c>
-      <c r="H127" t="s">
-        <v>16</v>
-      </c>
-      <c r="I127" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B128" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" t="s">
+        <v>401</v>
+      </c>
+      <c r="E128" t="s">
         <v>11</v>
       </c>
-      <c r="D128" t="s">
-        <v>403</v>
-      </c>
-      <c r="E128" t="s">
-        <v>13</v>
-      </c>
       <c r="F128" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G128" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H128" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
+        <v>402</v>
+      </c>
+      <c r="B129" t="s">
+        <v>8</v>
+      </c>
+      <c r="C129" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" t="s">
+        <v>403</v>
+      </c>
+      <c r="E129" t="s">
+        <v>126</v>
+      </c>
+      <c r="F129" t="s">
+        <v>12</v>
+      </c>
+      <c r="G129" t="s">
+        <v>13</v>
+      </c>
+      <c r="H129" t="s">
+        <v>14</v>
+      </c>
+      <c r="I129" t="s">
         <v>404</v>
-      </c>
-      <c r="B129" t="s">
-        <v>10</v>
-      </c>
-      <c r="C129" t="s">
-        <v>11</v>
-      </c>
-      <c r="D129" t="s">
-        <v>405</v>
-      </c>
-      <c r="E129" t="s">
-        <v>128</v>
-      </c>
-      <c r="F129" t="s">
-        <v>14</v>
-      </c>
-      <c r="G129" t="s">
-        <v>15</v>
-      </c>
-      <c r="H129" t="s">
-        <v>16</v>
-      </c>
-      <c r="I129" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
+        <v>405</v>
+      </c>
+      <c r="B130" t="s">
+        <v>8</v>
+      </c>
+      <c r="C130" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" t="s">
+        <v>406</v>
+      </c>
+      <c r="E130" t="s">
+        <v>66</v>
+      </c>
+      <c r="F130" t="s">
+        <v>12</v>
+      </c>
+      <c r="G130" t="s">
+        <v>13</v>
+      </c>
+      <c r="H130" t="s">
+        <v>14</v>
+      </c>
+      <c r="I130" t="s">
         <v>407</v>
-      </c>
-      <c r="B130" t="s">
-        <v>10</v>
-      </c>
-      <c r="C130" t="s">
-        <v>11</v>
-      </c>
-      <c r="D130" t="s">
-        <v>408</v>
-      </c>
-      <c r="E130" t="s">
-        <v>68</v>
-      </c>
-      <c r="F130" t="s">
-        <v>14</v>
-      </c>
-      <c r="G130" t="s">
-        <v>15</v>
-      </c>
-      <c r="H130" t="s">
-        <v>16</v>
-      </c>
-      <c r="I130" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
+        <v>408</v>
+      </c>
+      <c r="B131" t="s">
+        <v>8</v>
+      </c>
+      <c r="C131" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" t="s">
+        <v>409</v>
+      </c>
+      <c r="E131" t="s">
+        <v>66</v>
+      </c>
+      <c r="F131" t="s">
+        <v>12</v>
+      </c>
+      <c r="G131" t="s">
+        <v>13</v>
+      </c>
+      <c r="H131" t="s">
+        <v>14</v>
+      </c>
+      <c r="I131" t="s">
         <v>410</v>
-      </c>
-      <c r="B131" t="s">
-        <v>10</v>
-      </c>
-      <c r="C131" t="s">
-        <v>11</v>
-      </c>
-      <c r="D131" t="s">
-        <v>411</v>
-      </c>
-      <c r="E131" t="s">
-        <v>68</v>
-      </c>
-      <c r="F131" t="s">
-        <v>14</v>
-      </c>
-      <c r="G131" t="s">
-        <v>15</v>
-      </c>
-      <c r="H131" t="s">
-        <v>16</v>
-      </c>
-      <c r="I131" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
+        <v>411</v>
+      </c>
+      <c r="B132" t="s">
+        <v>8</v>
+      </c>
+      <c r="C132" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" t="s">
+        <v>412</v>
+      </c>
+      <c r="E132" t="s">
+        <v>66</v>
+      </c>
+      <c r="F132" t="s">
+        <v>12</v>
+      </c>
+      <c r="G132" t="s">
+        <v>13</v>
+      </c>
+      <c r="H132" t="s">
+        <v>14</v>
+      </c>
+      <c r="I132" t="s">
         <v>413</v>
-      </c>
-      <c r="B132" t="s">
-        <v>10</v>
-      </c>
-      <c r="C132" t="s">
-        <v>11</v>
-      </c>
-      <c r="D132" t="s">
-        <v>414</v>
-      </c>
-      <c r="E132" t="s">
-        <v>68</v>
-      </c>
-      <c r="F132" t="s">
-        <v>14</v>
-      </c>
-      <c r="G132" t="s">
-        <v>15</v>
-      </c>
-      <c r="H132" t="s">
-        <v>16</v>
-      </c>
-      <c r="I132" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
+        <v>414</v>
+      </c>
+      <c r="B133" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" t="s">
+        <v>415</v>
+      </c>
+      <c r="E133" t="s">
+        <v>66</v>
+      </c>
+      <c r="F133" t="s">
+        <v>12</v>
+      </c>
+      <c r="G133" t="s">
+        <v>13</v>
+      </c>
+      <c r="H133" t="s">
+        <v>14</v>
+      </c>
+      <c r="I133" t="s">
         <v>416</v>
-      </c>
-      <c r="B133" t="s">
-        <v>10</v>
-      </c>
-      <c r="C133" t="s">
-        <v>11</v>
-      </c>
-      <c r="D133" t="s">
-        <v>417</v>
-      </c>
-      <c r="E133" t="s">
-        <v>68</v>
-      </c>
-      <c r="F133" t="s">
-        <v>14</v>
-      </c>
-      <c r="G133" t="s">
-        <v>15</v>
-      </c>
-      <c r="H133" t="s">
-        <v>16</v>
-      </c>
-      <c r="I133" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B134" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E134" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G134" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H134" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
+        <v>419</v>
+      </c>
+      <c r="B135" t="s">
+        <v>8</v>
+      </c>
+      <c r="C135" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" t="s">
+        <v>420</v>
+      </c>
+      <c r="E135" t="s">
+        <v>18</v>
+      </c>
+      <c r="F135" t="s">
+        <v>12</v>
+      </c>
+      <c r="G135" t="s">
+        <v>13</v>
+      </c>
+      <c r="H135" t="s">
+        <v>14</v>
+      </c>
+      <c r="I135" t="s">
         <v>421</v>
-      </c>
-      <c r="B135" t="s">
-        <v>10</v>
-      </c>
-      <c r="C135" t="s">
-        <v>11</v>
-      </c>
-      <c r="D135" t="s">
-        <v>422</v>
-      </c>
-      <c r="E135" t="s">
-        <v>20</v>
-      </c>
-      <c r="F135" t="s">
-        <v>14</v>
-      </c>
-      <c r="G135" t="s">
-        <v>15</v>
-      </c>
-      <c r="H135" t="s">
-        <v>16</v>
-      </c>
-      <c r="I135" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
+        <v>422</v>
+      </c>
+      <c r="B136" t="s">
+        <v>8</v>
+      </c>
+      <c r="C136" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" t="s">
+        <v>423</v>
+      </c>
+      <c r="E136" t="s">
         <v>424</v>
       </c>
-      <c r="B136" t="s">
-        <v>10</v>
-      </c>
-      <c r="C136" t="s">
-        <v>11</v>
-      </c>
-      <c r="D136" t="s">
+      <c r="F136" t="s">
+        <v>12</v>
+      </c>
+      <c r="G136" t="s">
+        <v>13</v>
+      </c>
+      <c r="H136" t="s">
+        <v>14</v>
+      </c>
+      <c r="I136" t="s">
         <v>425</v>
-      </c>
-      <c r="E136" t="s">
-        <v>426</v>
-      </c>
-      <c r="F136" t="s">
-        <v>14</v>
-      </c>
-      <c r="G136" t="s">
-        <v>15</v>
-      </c>
-      <c r="H136" t="s">
-        <v>16</v>
-      </c>
-      <c r="I136" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
+        <v>426</v>
+      </c>
+      <c r="B137" t="s">
+        <v>8</v>
+      </c>
+      <c r="C137" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" t="s">
+        <v>427</v>
+      </c>
+      <c r="E137" t="s">
+        <v>52</v>
+      </c>
+      <c r="F137" t="s">
+        <v>12</v>
+      </c>
+      <c r="G137" t="s">
+        <v>13</v>
+      </c>
+      <c r="H137" t="s">
+        <v>14</v>
+      </c>
+      <c r="I137" t="s">
         <v>428</v>
-      </c>
-      <c r="B137" t="s">
-        <v>10</v>
-      </c>
-      <c r="C137" t="s">
-        <v>11</v>
-      </c>
-      <c r="D137" t="s">
-        <v>429</v>
-      </c>
-      <c r="E137" t="s">
-        <v>54</v>
-      </c>
-      <c r="F137" t="s">
-        <v>14</v>
-      </c>
-      <c r="G137" t="s">
-        <v>15</v>
-      </c>
-      <c r="H137" t="s">
-        <v>16</v>
-      </c>
-      <c r="I137" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B138" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E138" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F138" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G138" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H138" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I138" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
+        <v>431</v>
+      </c>
+      <c r="B139" t="s">
+        <v>8</v>
+      </c>
+      <c r="C139" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" t="s">
+        <v>432</v>
+      </c>
+      <c r="E139" t="s">
+        <v>56</v>
+      </c>
+      <c r="F139" t="s">
+        <v>12</v>
+      </c>
+      <c r="G139" t="s">
+        <v>13</v>
+      </c>
+      <c r="H139" t="s">
+        <v>14</v>
+      </c>
+      <c r="I139" t="s">
         <v>433</v>
-      </c>
-      <c r="B139" t="s">
-        <v>10</v>
-      </c>
-      <c r="C139" t="s">
-        <v>11</v>
-      </c>
-      <c r="D139" t="s">
-        <v>434</v>
-      </c>
-      <c r="E139" t="s">
-        <v>58</v>
-      </c>
-      <c r="F139" t="s">
-        <v>14</v>
-      </c>
-      <c r="G139" t="s">
-        <v>15</v>
-      </c>
-      <c r="H139" t="s">
-        <v>16</v>
-      </c>
-      <c r="I139" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
+        <v>434</v>
+      </c>
+      <c r="B140" t="s">
+        <v>8</v>
+      </c>
+      <c r="C140" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" t="s">
+        <v>435</v>
+      </c>
+      <c r="E140" t="s">
         <v>436</v>
       </c>
-      <c r="B140" t="s">
-        <v>10</v>
-      </c>
-      <c r="C140" t="s">
-        <v>11</v>
-      </c>
-      <c r="D140" t="s">
+      <c r="F140" t="s">
+        <v>12</v>
+      </c>
+      <c r="G140" t="s">
+        <v>13</v>
+      </c>
+      <c r="H140" t="s">
+        <v>14</v>
+      </c>
+      <c r="I140" t="s">
         <v>437</v>
-      </c>
-      <c r="E140" t="s">
-        <v>438</v>
-      </c>
-      <c r="F140" t="s">
-        <v>14</v>
-      </c>
-      <c r="G140" t="s">
-        <v>15</v>
-      </c>
-      <c r="H140" t="s">
-        <v>16</v>
-      </c>
-      <c r="I140" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
+        <v>438</v>
+      </c>
+      <c r="B141" t="s">
+        <v>8</v>
+      </c>
+      <c r="C141" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" t="s">
+        <v>439</v>
+      </c>
+      <c r="E141" t="s">
+        <v>359</v>
+      </c>
+      <c r="F141" t="s">
+        <v>12</v>
+      </c>
+      <c r="G141" t="s">
+        <v>13</v>
+      </c>
+      <c r="H141" t="s">
+        <v>14</v>
+      </c>
+      <c r="I141" t="s">
         <v>440</v>
-      </c>
-      <c r="B141" t="s">
-        <v>10</v>
-      </c>
-      <c r="C141" t="s">
-        <v>11</v>
-      </c>
-      <c r="D141" t="s">
-        <v>441</v>
-      </c>
-      <c r="E141" t="s">
-        <v>361</v>
-      </c>
-      <c r="F141" t="s">
-        <v>14</v>
-      </c>
-      <c r="G141" t="s">
-        <v>15</v>
-      </c>
-      <c r="H141" t="s">
-        <v>16</v>
-      </c>
-      <c r="I141" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
+        <v>441</v>
+      </c>
+      <c r="B142" t="s">
+        <v>8</v>
+      </c>
+      <c r="C142" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" t="s">
+        <v>442</v>
+      </c>
+      <c r="E142" t="s">
+        <v>7</v>
+      </c>
+      <c r="F142" t="s">
+        <v>12</v>
+      </c>
+      <c r="G142" t="s">
+        <v>13</v>
+      </c>
+      <c r="H142" t="s">
+        <v>14</v>
+      </c>
+      <c r="I142" t="s">
         <v>443</v>
-      </c>
-      <c r="B142" t="s">
-        <v>10</v>
-      </c>
-      <c r="C142" t="s">
-        <v>11</v>
-      </c>
-      <c r="D142" t="s">
-        <v>444</v>
-      </c>
-      <c r="E142" t="s">
-        <v>9</v>
-      </c>
-      <c r="F142" t="s">
-        <v>14</v>
-      </c>
-      <c r="G142" t="s">
-        <v>15</v>
-      </c>
-      <c r="H142" t="s">
-        <v>16</v>
-      </c>
-      <c r="I142" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B143" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E143" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F143" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G143" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H143" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I143" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
+        <v>446</v>
+      </c>
+      <c r="B144" t="s">
+        <v>8</v>
+      </c>
+      <c r="C144" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" t="s">
+        <v>447</v>
+      </c>
+      <c r="E144" t="s">
+        <v>377</v>
+      </c>
+      <c r="F144" t="s">
+        <v>12</v>
+      </c>
+      <c r="G144" t="s">
+        <v>13</v>
+      </c>
+      <c r="H144" t="s">
+        <v>14</v>
+      </c>
+      <c r="I144" t="s">
         <v>448</v>
-      </c>
-      <c r="B144" t="s">
-        <v>10</v>
-      </c>
-      <c r="C144" t="s">
-        <v>11</v>
-      </c>
-      <c r="D144" t="s">
-        <v>449</v>
-      </c>
-      <c r="E144" t="s">
-        <v>379</v>
-      </c>
-      <c r="F144" t="s">
-        <v>14</v>
-      </c>
-      <c r="G144" t="s">
-        <v>15</v>
-      </c>
-      <c r="H144" t="s">
-        <v>16</v>
-      </c>
-      <c r="I144" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
+        <v>449</v>
+      </c>
+      <c r="B145" t="s">
+        <v>8</v>
+      </c>
+      <c r="C145" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145" t="s">
+        <v>450</v>
+      </c>
+      <c r="E145" t="s">
+        <v>30</v>
+      </c>
+      <c r="F145" t="s">
+        <v>12</v>
+      </c>
+      <c r="G145" t="s">
+        <v>13</v>
+      </c>
+      <c r="H145" t="s">
+        <v>14</v>
+      </c>
+      <c r="I145" t="s">
         <v>451</v>
-      </c>
-      <c r="B145" t="s">
-        <v>10</v>
-      </c>
-      <c r="C145" t="s">
-        <v>11</v>
-      </c>
-      <c r="D145" t="s">
-        <v>452</v>
-      </c>
-      <c r="E145" t="s">
-        <v>32</v>
-      </c>
-      <c r="F145" t="s">
-        <v>14</v>
-      </c>
-      <c r="G145" t="s">
-        <v>15</v>
-      </c>
-      <c r="H145" t="s">
-        <v>16</v>
-      </c>
-      <c r="I145" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B146" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E146" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F146" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G146" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H146" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I146" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
+        <v>454</v>
+      </c>
+      <c r="B147" t="s">
+        <v>8</v>
+      </c>
+      <c r="C147" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" t="s">
+        <v>455</v>
+      </c>
+      <c r="E147" t="s">
+        <v>436</v>
+      </c>
+      <c r="F147" t="s">
+        <v>12</v>
+      </c>
+      <c r="G147" t="s">
+        <v>13</v>
+      </c>
+      <c r="H147" t="s">
+        <v>14</v>
+      </c>
+      <c r="I147" t="s">
         <v>456</v>
-      </c>
-      <c r="B147" t="s">
-        <v>10</v>
-      </c>
-      <c r="C147" t="s">
-        <v>11</v>
-      </c>
-      <c r="D147" t="s">
-        <v>457</v>
-      </c>
-      <c r="E147" t="s">
-        <v>438</v>
-      </c>
-      <c r="F147" t="s">
-        <v>14</v>
-      </c>
-      <c r="G147" t="s">
-        <v>15</v>
-      </c>
-      <c r="H147" t="s">
-        <v>16</v>
-      </c>
-      <c r="I147" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
+        <v>457</v>
+      </c>
+      <c r="B148" t="s">
+        <v>8</v>
+      </c>
+      <c r="C148" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" t="s">
+        <v>458</v>
+      </c>
+      <c r="E148" t="s">
+        <v>388</v>
+      </c>
+      <c r="F148" t="s">
+        <v>12</v>
+      </c>
+      <c r="G148" t="s">
+        <v>13</v>
+      </c>
+      <c r="H148" t="s">
+        <v>14</v>
+      </c>
+      <c r="I148" t="s">
         <v>459</v>
-      </c>
-      <c r="B148" t="s">
-        <v>10</v>
-      </c>
-      <c r="C148" t="s">
-        <v>11</v>
-      </c>
-      <c r="D148" t="s">
-        <v>460</v>
-      </c>
-      <c r="E148" t="s">
-        <v>390</v>
-      </c>
-      <c r="F148" t="s">
-        <v>14</v>
-      </c>
-      <c r="G148" t="s">
-        <v>15</v>
-      </c>
-      <c r="H148" t="s">
-        <v>16</v>
-      </c>
-      <c r="I148" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
+        <v>460</v>
+      </c>
+      <c r="B149" t="s">
+        <v>8</v>
+      </c>
+      <c r="C149" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" t="s">
+        <v>461</v>
+      </c>
+      <c r="E149" t="s">
         <v>462</v>
       </c>
-      <c r="B149" t="s">
-        <v>10</v>
-      </c>
-      <c r="C149" t="s">
-        <v>11</v>
-      </c>
-      <c r="D149" t="s">
-        <v>463</v>
-      </c>
-      <c r="E149" t="s">
-        <v>464</v>
-      </c>
       <c r="F149" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G149" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H149" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
+        <v>463</v>
+      </c>
+      <c r="B150" t="s">
+        <v>8</v>
+      </c>
+      <c r="C150" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" t="s">
+        <v>464</v>
+      </c>
+      <c r="E150" t="s">
         <v>465</v>
       </c>
-      <c r="B150" t="s">
-        <v>10</v>
-      </c>
-      <c r="C150" t="s">
-        <v>11</v>
-      </c>
-      <c r="D150" t="s">
+      <c r="F150" t="s">
+        <v>12</v>
+      </c>
+      <c r="G150" t="s">
+        <v>13</v>
+      </c>
+      <c r="H150" t="s">
+        <v>14</v>
+      </c>
+      <c r="I150" t="s">
         <v>466</v>
-      </c>
-      <c r="E150" t="s">
-        <v>467</v>
-      </c>
-      <c r="F150" t="s">
-        <v>14</v>
-      </c>
-      <c r="G150" t="s">
-        <v>15</v>
-      </c>
-      <c r="H150" t="s">
-        <v>16</v>
-      </c>
-      <c r="I150" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
+        <v>467</v>
+      </c>
+      <c r="B151" t="s">
+        <v>8</v>
+      </c>
+      <c r="C151" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151" t="s">
+        <v>468</v>
+      </c>
+      <c r="E151" t="s">
+        <v>34</v>
+      </c>
+      <c r="F151" t="s">
+        <v>12</v>
+      </c>
+      <c r="G151" t="s">
+        <v>13</v>
+      </c>
+      <c r="H151" t="s">
+        <v>14</v>
+      </c>
+      <c r="I151" t="s">
         <v>469</v>
-      </c>
-      <c r="B151" t="s">
-        <v>10</v>
-      </c>
-      <c r="C151" t="s">
-        <v>11</v>
-      </c>
-      <c r="D151" t="s">
-        <v>470</v>
-      </c>
-      <c r="E151" t="s">
-        <v>36</v>
-      </c>
-      <c r="F151" t="s">
-        <v>14</v>
-      </c>
-      <c r="G151" t="s">
-        <v>15</v>
-      </c>
-      <c r="H151" t="s">
-        <v>16</v>
-      </c>
-      <c r="I151" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
+        <v>470</v>
+      </c>
+      <c r="B152" t="s">
+        <v>8</v>
+      </c>
+      <c r="C152" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" t="s">
+        <v>471</v>
+      </c>
+      <c r="E152" t="s">
+        <v>229</v>
+      </c>
+      <c r="F152" t="s">
+        <v>12</v>
+      </c>
+      <c r="G152" t="s">
+        <v>13</v>
+      </c>
+      <c r="H152" t="s">
+        <v>14</v>
+      </c>
+      <c r="I152" t="s">
         <v>472</v>
-      </c>
-      <c r="B152" t="s">
-        <v>10</v>
-      </c>
-      <c r="C152" t="s">
-        <v>11</v>
-      </c>
-      <c r="D152" t="s">
-        <v>473</v>
-      </c>
-      <c r="E152" t="s">
-        <v>231</v>
-      </c>
-      <c r="F152" t="s">
-        <v>14</v>
-      </c>
-      <c r="G152" t="s">
-        <v>15</v>
-      </c>
-      <c r="H152" t="s">
-        <v>16</v>
-      </c>
-      <c r="I152" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
+        <v>473</v>
+      </c>
+      <c r="B153" t="s">
+        <v>8</v>
+      </c>
+      <c r="C153" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" t="s">
+        <v>474</v>
+      </c>
+      <c r="E153" t="s">
+        <v>12</v>
+      </c>
+      <c r="F153" t="s">
+        <v>12</v>
+      </c>
+      <c r="G153" t="s">
+        <v>13</v>
+      </c>
+      <c r="H153" t="s">
+        <v>14</v>
+      </c>
+      <c r="I153" t="s">
         <v>475</v>
-      </c>
-      <c r="B153" t="s">
-        <v>10</v>
-      </c>
-      <c r="C153" t="s">
-        <v>11</v>
-      </c>
-      <c r="D153" t="s">
-        <v>476</v>
-      </c>
-      <c r="E153" t="s">
-        <v>14</v>
-      </c>
-      <c r="F153" t="s">
-        <v>14</v>
-      </c>
-      <c r="G153" t="s">
-        <v>15</v>
-      </c>
-      <c r="H153" t="s">
-        <v>16</v>
-      </c>
-      <c r="I153" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B154" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E154" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F154" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G154" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H154" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I154" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B155" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E155" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G155" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H155" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B156" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E156" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G156" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H156" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B157" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E157" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G157" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H157" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B158" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E158" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G158" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H158" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
+        <v>486</v>
+      </c>
+      <c r="B159" t="s">
+        <v>8</v>
+      </c>
+      <c r="C159" t="s">
+        <v>9</v>
+      </c>
+      <c r="D159" t="s">
+        <v>487</v>
+      </c>
+      <c r="E159" t="s">
         <v>488</v>
       </c>
-      <c r="B159" t="s">
-        <v>10</v>
-      </c>
-      <c r="C159" t="s">
-        <v>11</v>
-      </c>
-      <c r="D159" t="s">
+      <c r="F159" t="s">
+        <v>12</v>
+      </c>
+      <c r="G159" t="s">
+        <v>13</v>
+      </c>
+      <c r="H159" t="s">
+        <v>14</v>
+      </c>
+      <c r="I159" t="s">
         <v>489</v>
-      </c>
-      <c r="E159" t="s">
-        <v>490</v>
-      </c>
-      <c r="F159" t="s">
-        <v>14</v>
-      </c>
-      <c r="G159" t="s">
-        <v>15</v>
-      </c>
-      <c r="H159" t="s">
-        <v>16</v>
-      </c>
-      <c r="I159" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B160" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E160" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G160" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H160" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B161" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E161" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G161" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H161" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B162" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E162" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G162" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H162" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B163" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E163" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G163" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H163" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B164" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E164" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G164" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H164" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B165" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E165" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G165" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H165" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B166" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E166" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G166" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H166" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B167" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E167" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G167" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H167" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B168" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E168" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F168" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G168" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H168" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B169" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E169" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G169" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H169" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B170" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E170" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F170" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G170" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H170" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B171" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E171" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G171" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H171" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B172" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E172" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F172" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G172" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H172" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B173" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E173" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F173" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G173" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H173" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B174" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E174" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F174" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G174" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H174" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B175" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E175" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F175" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G175" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H175" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B176" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E176" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F176" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G176" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H176" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B177" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E177" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F177" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G177" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H177" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B178" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E178" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F178" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G178" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H178" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B179" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E179" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F179" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G179" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H179" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B180" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E180" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F180" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G180" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H180" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B181" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E181" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F181" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G181" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H181" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B182" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E182" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F182" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G182" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H182" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B183" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E183" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F183" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G183" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H183" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B184" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E184" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F184" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G184" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H184" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B185" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E185" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F185" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G185" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H185" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D186" t="s">
+        <v>541</v>
+      </c>
+      <c r="E186" t="s">
+        <v>542</v>
+      </c>
+      <c r="F186" t="s">
+        <v>12</v>
+      </c>
+      <c r="G186" t="s">
+        <v>13</v>
+      </c>
+      <c r="H186" t="s">
+        <v>186</v>
+      </c>
+      <c r="I186" t="s">
         <v>543</v>
-      </c>
-      <c r="E186" t="s">
-        <v>544</v>
-      </c>
-      <c r="F186" t="s">
-        <v>14</v>
-      </c>
-      <c r="G186" t="s">
-        <v>15</v>
-      </c>
-      <c r="H186" t="s">
-        <v>188</v>
-      </c>
-      <c r="I186" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
+        <v>544</v>
+      </c>
+      <c r="B187" t="s">
+        <v>8</v>
+      </c>
+      <c r="C187" t="s">
+        <v>183</v>
+      </c>
+      <c r="D187" t="s">
+        <v>545</v>
+      </c>
+      <c r="E187" t="s">
+        <v>301</v>
+      </c>
+      <c r="F187" t="s">
         <v>546</v>
       </c>
-      <c r="B187" t="s">
-        <v>10</v>
-      </c>
-      <c r="C187" t="s">
-        <v>185</v>
-      </c>
-      <c r="D187" t="s">
+      <c r="G187" t="s">
+        <v>13</v>
+      </c>
+      <c r="H187" t="s">
+        <v>186</v>
+      </c>
+      <c r="I187" t="s">
         <v>547</v>
-      </c>
-      <c r="E187" t="s">
-        <v>303</v>
-      </c>
-      <c r="F187" t="s">
-        <v>548</v>
-      </c>
-      <c r="G187" t="s">
-        <v>15</v>
-      </c>
-      <c r="H187" t="s">
-        <v>188</v>
-      </c>
-      <c r="I187" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B188" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D188" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E188" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F188" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G188" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H188" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B189" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D189" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E189" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F189" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G189" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H189" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B190" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D190" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E190" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F190" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G190" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H190" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I190" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
+        <v>552</v>
+      </c>
+      <c r="B191" t="s">
+        <v>8</v>
+      </c>
+      <c r="C191" t="s">
+        <v>202</v>
+      </c>
+      <c r="D191" t="s">
+        <v>553</v>
+      </c>
+      <c r="E191" t="s">
         <v>554</v>
       </c>
-      <c r="B191" t="s">
-        <v>10</v>
-      </c>
-      <c r="C191" t="s">
-        <v>204</v>
-      </c>
-      <c r="D191" t="s">
+      <c r="F191" t="s">
+        <v>12</v>
+      </c>
+      <c r="G191" t="s">
+        <v>205</v>
+      </c>
+      <c r="H191" t="s">
+        <v>206</v>
+      </c>
+      <c r="I191" t="s">
         <v>555</v>
-      </c>
-      <c r="E191" t="s">
-        <v>556</v>
-      </c>
-      <c r="F191" t="s">
-        <v>14</v>
-      </c>
-      <c r="G191" t="s">
-        <v>207</v>
-      </c>
-      <c r="H191" t="s">
-        <v>208</v>
-      </c>
-      <c r="I191" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
+        <v>556</v>
+      </c>
+      <c r="B192" t="s">
+        <v>8</v>
+      </c>
+      <c r="C192" t="s">
+        <v>557</v>
+      </c>
+      <c r="D192" t="s">
         <v>558</v>
       </c>
-      <c r="B192" t="s">
-        <v>10</v>
-      </c>
-      <c r="C192" t="s">
+      <c r="E192" t="s">
+        <v>318</v>
+      </c>
+      <c r="F192" t="s">
+        <v>12</v>
+      </c>
+      <c r="G192" t="s">
+        <v>205</v>
+      </c>
+      <c r="H192" t="s">
         <v>559</v>
       </c>
-      <c r="D192" t="s">
+      <c r="I192" t="s">
         <v>560</v>
-      </c>
-      <c r="E192" t="s">
-        <v>320</v>
-      </c>
-      <c r="F192" t="s">
-        <v>14</v>
-      </c>
-      <c r="G192" t="s">
-        <v>207</v>
-      </c>
-      <c r="H192" t="s">
-        <v>561</v>
-      </c>
-      <c r="I192" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
+        <v>561</v>
+      </c>
+      <c r="B193" t="s">
+        <v>8</v>
+      </c>
+      <c r="C193" t="s">
+        <v>562</v>
+      </c>
+      <c r="D193" t="s">
         <v>563</v>
       </c>
-      <c r="B193" t="s">
-        <v>10</v>
-      </c>
-      <c r="C193" t="s">
+      <c r="E193" t="s">
+        <v>318</v>
+      </c>
+      <c r="F193" t="s">
         <v>564</v>
       </c>
-      <c r="D193" t="s">
+      <c r="G193" t="s">
+        <v>562</v>
+      </c>
+      <c r="H193" t="s">
         <v>565</v>
       </c>
-      <c r="E193" t="s">
-        <v>320</v>
-      </c>
-      <c r="F193" t="s">
+      <c r="I193" t="s">
         <v>566</v>
-      </c>
-      <c r="G193" t="s">
-        <v>564</v>
-      </c>
-      <c r="H193" t="s">
-        <v>567</v>
-      </c>
-      <c r="I193" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
+        <v>567</v>
+      </c>
+      <c r="B194" t="s">
+        <v>8</v>
+      </c>
+      <c r="C194" t="s">
+        <v>202</v>
+      </c>
+      <c r="D194" t="s">
+        <v>568</v>
+      </c>
+      <c r="E194" t="s">
         <v>569</v>
       </c>
-      <c r="B194" t="s">
-        <v>10</v>
-      </c>
-      <c r="C194" t="s">
-        <v>204</v>
-      </c>
-      <c r="D194" t="s">
+      <c r="F194" t="s">
+        <v>12</v>
+      </c>
+      <c r="G194" t="s">
+        <v>205</v>
+      </c>
+      <c r="H194" t="s">
+        <v>206</v>
+      </c>
+      <c r="I194" t="s">
         <v>570</v>
-      </c>
-      <c r="E194" t="s">
-        <v>571</v>
-      </c>
-      <c r="F194" t="s">
-        <v>14</v>
-      </c>
-      <c r="G194" t="s">
-        <v>207</v>
-      </c>
-      <c r="H194" t="s">
-        <v>208</v>
-      </c>
-      <c r="I194" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
+        <v>571</v>
+      </c>
+      <c r="B195" t="s">
+        <v>8</v>
+      </c>
+      <c r="C195" t="s">
+        <v>202</v>
+      </c>
+      <c r="D195" t="s">
+        <v>572</v>
+      </c>
+      <c r="E195" t="s">
         <v>573</v>
       </c>
-      <c r="B195" t="s">
-        <v>10</v>
-      </c>
-      <c r="C195" t="s">
-        <v>204</v>
-      </c>
-      <c r="D195" t="s">
+      <c r="F195" t="s">
+        <v>12</v>
+      </c>
+      <c r="G195" t="s">
+        <v>205</v>
+      </c>
+      <c r="H195" t="s">
+        <v>206</v>
+      </c>
+      <c r="I195" t="s">
         <v>574</v>
-      </c>
-      <c r="E195" t="s">
-        <v>575</v>
-      </c>
-      <c r="F195" t="s">
-        <v>14</v>
-      </c>
-      <c r="G195" t="s">
-        <v>207</v>
-      </c>
-      <c r="H195" t="s">
-        <v>208</v>
-      </c>
-      <c r="I195" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
+        <v>575</v>
+      </c>
+      <c r="B196" t="s">
+        <v>8</v>
+      </c>
+      <c r="C196" t="s">
+        <v>202</v>
+      </c>
+      <c r="D196" t="s">
+        <v>576</v>
+      </c>
+      <c r="E196" t="s">
+        <v>204</v>
+      </c>
+      <c r="F196" t="s">
+        <v>12</v>
+      </c>
+      <c r="G196" t="s">
+        <v>205</v>
+      </c>
+      <c r="H196" t="s">
+        <v>206</v>
+      </c>
+      <c r="I196" t="s">
         <v>577</v>
-      </c>
-      <c r="B196" t="s">
-        <v>10</v>
-      </c>
-      <c r="C196" t="s">
-        <v>204</v>
-      </c>
-      <c r="D196" t="s">
-        <v>578</v>
-      </c>
-      <c r="E196" t="s">
-        <v>206</v>
-      </c>
-      <c r="F196" t="s">
-        <v>14</v>
-      </c>
-      <c r="G196" t="s">
-        <v>207</v>
-      </c>
-      <c r="H196" t="s">
-        <v>208</v>
-      </c>
-      <c r="I196" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
+        <v>578</v>
+      </c>
+      <c r="B197" t="s">
+        <v>8</v>
+      </c>
+      <c r="C197" t="s">
+        <v>202</v>
+      </c>
+      <c r="D197" t="s">
+        <v>579</v>
+      </c>
+      <c r="E197" t="s">
+        <v>204</v>
+      </c>
+      <c r="F197" t="s">
+        <v>12</v>
+      </c>
+      <c r="G197" t="s">
+        <v>205</v>
+      </c>
+      <c r="H197" t="s">
+        <v>206</v>
+      </c>
+      <c r="I197" t="s">
         <v>580</v>
-      </c>
-      <c r="B197" t="s">
-        <v>10</v>
-      </c>
-      <c r="C197" t="s">
-        <v>204</v>
-      </c>
-      <c r="D197" t="s">
-        <v>581</v>
-      </c>
-      <c r="E197" t="s">
-        <v>206</v>
-      </c>
-      <c r="F197" t="s">
-        <v>14</v>
-      </c>
-      <c r="G197" t="s">
-        <v>207</v>
-      </c>
-      <c r="H197" t="s">
-        <v>208</v>
-      </c>
-      <c r="I197" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
+        <v>581</v>
+      </c>
+      <c r="B198" t="s">
+        <v>8</v>
+      </c>
+      <c r="C198" t="s">
+        <v>202</v>
+      </c>
+      <c r="D198" t="s">
+        <v>582</v>
+      </c>
+      <c r="E198" t="s">
         <v>583</v>
       </c>
-      <c r="B198" t="s">
-        <v>10</v>
-      </c>
-      <c r="C198" t="s">
-        <v>204</v>
-      </c>
-      <c r="D198" t="s">
+      <c r="F198" t="s">
+        <v>12</v>
+      </c>
+      <c r="G198" t="s">
+        <v>205</v>
+      </c>
+      <c r="H198" t="s">
+        <v>206</v>
+      </c>
+      <c r="I198" t="s">
         <v>584</v>
-      </c>
-      <c r="E198" t="s">
-        <v>585</v>
-      </c>
-      <c r="F198" t="s">
-        <v>14</v>
-      </c>
-      <c r="G198" t="s">
-        <v>207</v>
-      </c>
-      <c r="H198" t="s">
-        <v>208</v>
-      </c>
-      <c r="I198" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
+        <v>585</v>
+      </c>
+      <c r="B199" t="s">
+        <v>8</v>
+      </c>
+      <c r="C199" t="s">
+        <v>202</v>
+      </c>
+      <c r="D199" t="s">
+        <v>586</v>
+      </c>
+      <c r="E199" t="s">
+        <v>204</v>
+      </c>
+      <c r="F199" t="s">
+        <v>12</v>
+      </c>
+      <c r="G199" t="s">
+        <v>205</v>
+      </c>
+      <c r="H199" t="s">
+        <v>206</v>
+      </c>
+      <c r="I199" t="s">
         <v>587</v>
-      </c>
-      <c r="B199" t="s">
-        <v>10</v>
-      </c>
-      <c r="C199" t="s">
-        <v>204</v>
-      </c>
-      <c r="D199" t="s">
-        <v>588</v>
-      </c>
-      <c r="E199" t="s">
-        <v>206</v>
-      </c>
-      <c r="F199" t="s">
-        <v>14</v>
-      </c>
-      <c r="G199" t="s">
-        <v>207</v>
-      </c>
-      <c r="H199" t="s">
-        <v>208</v>
-      </c>
-      <c r="I199" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
+        <v>588</v>
+      </c>
+      <c r="B200" t="s">
+        <v>8</v>
+      </c>
+      <c r="C200" t="s">
+        <v>202</v>
+      </c>
+      <c r="D200" t="s">
+        <v>589</v>
+      </c>
+      <c r="E200" t="s">
+        <v>583</v>
+      </c>
+      <c r="F200" t="s">
+        <v>12</v>
+      </c>
+      <c r="G200" t="s">
+        <v>205</v>
+      </c>
+      <c r="H200" t="s">
+        <v>206</v>
+      </c>
+      <c r="I200" t="s">
         <v>590</v>
-      </c>
-      <c r="B200" t="s">
-        <v>10</v>
-      </c>
-      <c r="C200" t="s">
-        <v>204</v>
-      </c>
-      <c r="D200" t="s">
-        <v>591</v>
-      </c>
-      <c r="E200" t="s">
-        <v>585</v>
-      </c>
-      <c r="F200" t="s">
-        <v>14</v>
-      </c>
-      <c r="G200" t="s">
-        <v>207</v>
-      </c>
-      <c r="H200" t="s">
-        <v>208</v>
-      </c>
-      <c r="I200" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
+        <v>591</v>
+      </c>
+      <c r="B201" t="s">
+        <v>8</v>
+      </c>
+      <c r="C201" t="s">
+        <v>202</v>
+      </c>
+      <c r="D201" t="s">
+        <v>592</v>
+      </c>
+      <c r="E201" t="s">
+        <v>214</v>
+      </c>
+      <c r="F201" t="s">
+        <v>12</v>
+      </c>
+      <c r="G201" t="s">
+        <v>205</v>
+      </c>
+      <c r="H201" t="s">
+        <v>206</v>
+      </c>
+      <c r="I201" t="s">
         <v>593</v>
-      </c>
-      <c r="B201" t="s">
-        <v>10</v>
-      </c>
-      <c r="C201" t="s">
-        <v>204</v>
-      </c>
-      <c r="D201" t="s">
-        <v>594</v>
-      </c>
-      <c r="E201" t="s">
-        <v>216</v>
-      </c>
-      <c r="F201" t="s">
-        <v>14</v>
-      </c>
-      <c r="G201" t="s">
-        <v>207</v>
-      </c>
-      <c r="H201" t="s">
-        <v>208</v>
-      </c>
-      <c r="I201" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
+        <v>594</v>
+      </c>
+      <c r="B202" t="s">
+        <v>8</v>
+      </c>
+      <c r="C202" t="s">
+        <v>595</v>
+      </c>
+      <c r="D202" t="s">
         <v>596</v>
       </c>
-      <c r="B202" t="s">
-        <v>10</v>
-      </c>
-      <c r="C202" t="s">
+      <c r="E202" t="s">
         <v>597</v>
       </c>
-      <c r="D202" t="s">
+      <c r="F202" t="s">
+        <v>12</v>
+      </c>
+      <c r="G202" t="s">
+        <v>205</v>
+      </c>
+      <c r="H202" t="s">
         <v>598</v>
       </c>
-      <c r="E202" t="s">
+      <c r="I202" t="s">
         <v>599</v>
-      </c>
-      <c r="F202" t="s">
-        <v>14</v>
-      </c>
-      <c r="G202" t="s">
-        <v>207</v>
-      </c>
-      <c r="H202" t="s">
-        <v>600</v>
-      </c>
-      <c r="I202" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
+        <v>600</v>
+      </c>
+      <c r="B203" t="s">
+        <v>8</v>
+      </c>
+      <c r="C203" t="s">
+        <v>557</v>
+      </c>
+      <c r="D203" t="s">
+        <v>601</v>
+      </c>
+      <c r="E203" t="s">
+        <v>318</v>
+      </c>
+      <c r="F203" t="s">
+        <v>12</v>
+      </c>
+      <c r="G203" t="s">
+        <v>205</v>
+      </c>
+      <c r="H203" t="s">
+        <v>559</v>
+      </c>
+      <c r="I203" t="s">
         <v>602</v>
-      </c>
-      <c r="B203" t="s">
-        <v>10</v>
-      </c>
-      <c r="C203" t="s">
-        <v>559</v>
-      </c>
-      <c r="D203" t="s">
-        <v>603</v>
-      </c>
-      <c r="E203" t="s">
-        <v>320</v>
-      </c>
-      <c r="F203" t="s">
-        <v>14</v>
-      </c>
-      <c r="G203" t="s">
-        <v>207</v>
-      </c>
-      <c r="H203" t="s">
-        <v>561</v>
-      </c>
-      <c r="I203" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
+        <v>603</v>
+      </c>
+      <c r="B204" t="s">
+        <v>8</v>
+      </c>
+      <c r="C204" t="s">
+        <v>557</v>
+      </c>
+      <c r="D204" t="s">
+        <v>604</v>
+      </c>
+      <c r="E204" t="s">
+        <v>318</v>
+      </c>
+      <c r="F204" t="s">
+        <v>12</v>
+      </c>
+      <c r="G204" t="s">
+        <v>205</v>
+      </c>
+      <c r="H204" t="s">
+        <v>559</v>
+      </c>
+      <c r="I204" t="s">
         <v>605</v>
-      </c>
-      <c r="B204" t="s">
-        <v>10</v>
-      </c>
-      <c r="C204" t="s">
-        <v>559</v>
-      </c>
-      <c r="D204" t="s">
-        <v>606</v>
-      </c>
-      <c r="E204" t="s">
-        <v>320</v>
-      </c>
-      <c r="F204" t="s">
-        <v>14</v>
-      </c>
-      <c r="G204" t="s">
-        <v>207</v>
-      </c>
-      <c r="H204" t="s">
-        <v>561</v>
-      </c>
-      <c r="I204" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
+        <v>606</v>
+      </c>
+      <c r="B205" t="s">
+        <v>8</v>
+      </c>
+      <c r="C205" t="s">
+        <v>557</v>
+      </c>
+      <c r="D205" t="s">
+        <v>607</v>
+      </c>
+      <c r="E205" t="s">
         <v>608</v>
       </c>
-      <c r="B205" t="s">
-        <v>10</v>
-      </c>
-      <c r="C205" t="s">
+      <c r="F205" t="s">
+        <v>319</v>
+      </c>
+      <c r="G205" t="s">
+        <v>205</v>
+      </c>
+      <c r="H205" t="s">
         <v>559</v>
       </c>
-      <c r="D205" t="s">
+      <c r="I205" t="s">
         <v>609</v>
-      </c>
-      <c r="E205" t="s">
-        <v>610</v>
-      </c>
-      <c r="F205" t="s">
-        <v>321</v>
-      </c>
-      <c r="G205" t="s">
-        <v>207</v>
-      </c>
-      <c r="H205" t="s">
-        <v>561</v>
-      </c>
-      <c r="I205" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B206" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
+        <v>557</v>
+      </c>
+      <c r="D206" t="s">
+        <v>611</v>
+      </c>
+      <c r="E206" t="s">
+        <v>108</v>
+      </c>
+      <c r="F206" t="s">
+        <v>12</v>
+      </c>
+      <c r="G206" t="s">
+        <v>205</v>
+      </c>
+      <c r="H206" t="s">
         <v>559</v>
-      </c>
-      <c r="D206" t="s">
-        <v>613</v>
-      </c>
-      <c r="E206" t="s">
-        <v>110</v>
-      </c>
-      <c r="F206" t="s">
-        <v>14</v>
-      </c>
-      <c r="G206" t="s">
-        <v>207</v>
-      </c>
-      <c r="H206" t="s">
-        <v>561</v>
       </c>
     </row>
   </sheetData>

--- a/Departments/CMPT.xlsx
+++ b/Departments/CMPT.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mitali\Current project\CourseMaps\CourseMap_Sigma\Departments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpattani\Documents\Course_Requisites\Departments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EFDE1F5-8FBF-4FE2-AE72-3B60625AA3DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB571D7-7746-48A2-925C-FFEF3CC92D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="720" windowWidth="14400" windowHeight="7360" xr2:uid="{8206A307-E563-465C-B7D9-64A7D54AA2E0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8206A307-E563-465C-B7D9-64A7D54AA2E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="612">
   <si>
     <t>Course_Code</t>
   </si>
@@ -480,12 +480,6 @@
     <t>CMPT 800 - 3D Computer Vision</t>
   </si>
   <si>
-    <t>CMPT813</t>
-  </si>
-  <si>
-    <t>CMPT 813 - Computational Geometry</t>
-  </si>
-  <si>
     <t>CMPT827</t>
   </si>
   <si>
@@ -498,12 +492,6 @@
     <t>CMPT 829 - Special Topics in Bioinformatics</t>
   </si>
   <si>
-    <t>CMPT843</t>
-  </si>
-  <si>
-    <t>CMPT 843 - Database and Knowledge-base Systems</t>
-  </si>
-  <si>
     <t>CMPT889</t>
   </si>
   <si>
@@ -582,9 +570,6 @@
     <t>ARTS</t>
   </si>
   <si>
-    <t>REQ-CHIN 290 or equivalent. This course is for students of Chinese origin who have near native speaking ability in Chinese (Mandarin or other dialects), but basic knowledge of written Chinese.</t>
-  </si>
-  <si>
     <t>ENSC351</t>
   </si>
   <si>
@@ -609,9 +594,6 @@
     <t>MACM 101 - Discrete Mathematics I</t>
   </si>
   <si>
-    <t>REQ-BC Math 12 (or equivalent), or any of MATH 100, 150, 151, 154, 157.</t>
-  </si>
-  <si>
     <t>MSE210</t>
   </si>
   <si>
@@ -660,18 +642,12 @@
     <t>MATHEMATIC</t>
   </si>
   <si>
-    <t>REQ-Pre-Calculus 12 (or equiv) with a grade of at least A, or MATH 100 grade of at least B, or satisfactory grade on the SFU Calculus Readiness Test. Students with credit for either MATH 150,154 or 157 may not take MATH 151 for further credit.</t>
-  </si>
-  <si>
     <t>MATH152</t>
   </si>
   <si>
     <t>MATH 152 - Calculus II</t>
   </si>
   <si>
-    <t>FANX99,MATH150,MATH151,MATH154,MATH155,MATH157</t>
-  </si>
-  <si>
     <t>REQ-MATH 150 or 151 or 155, with a minimum grade of C-; or MATH 154 or 157, with a grade of at least B. Students with credit for MATH 158 or 251 may not take this course for further credit. Quantitative.</t>
   </si>
   <si>
@@ -804,12 +780,6 @@
     <t>REQ-Students with credit for CMPT 706 may not take this course for further credit.</t>
   </si>
   <si>
-    <t>CMPT706</t>
-  </si>
-  <si>
-    <t>CMPT 706 - Design and Analysis of Algorithms for Big Data</t>
-  </si>
-  <si>
     <t>CMPT711</t>
   </si>
   <si>
@@ -849,9 +819,6 @@
     <t>CMPT732</t>
   </si>
   <si>
-    <t>REQ-CMPT 732</t>
-  </si>
-  <si>
     <t>CMPT740</t>
   </si>
   <si>
@@ -888,18 +855,6 @@
     <t>CMPT 771 - Computer Networks</t>
   </si>
   <si>
-    <t>CMPT772</t>
-  </si>
-  <si>
-    <t>CMPT 772 - Software Product Engineering and Management</t>
-  </si>
-  <si>
-    <t>CMPT780</t>
-  </si>
-  <si>
-    <t>CMPT 780 - Computer Security and Ethics</t>
-  </si>
-  <si>
     <t>CMPT782</t>
   </si>
   <si>
@@ -915,24 +870,12 @@
     <t>REQ-CMPT 782. This course is only available to students enrolled into the Cybersecurity concentration of the Professional Computer Science master’s program.</t>
   </si>
   <si>
-    <t>CMPT784</t>
-  </si>
-  <si>
-    <t>CMPT 784 - Cyber Risk Assessment and Management</t>
-  </si>
-  <si>
     <t>CMPT785</t>
   </si>
   <si>
     <t>CMPT 785 - Secure Software Design</t>
   </si>
   <si>
-    <t>CMPT787</t>
-  </si>
-  <si>
-    <t>CMPT 787 - Ethical Hacking</t>
-  </si>
-  <si>
     <t>SEE241</t>
   </si>
   <si>
@@ -1176,12 +1119,6 @@
     <t>CMPT 361 - Introduction to Visual Computing</t>
   </si>
   <si>
-    <t>CMPT225,MATH232,MATH240</t>
-  </si>
-  <si>
-    <t>REQ-CMPT 225 and MATH 232 or 240, all with a minimum grade of C-.</t>
-  </si>
-  <si>
     <t>CMPT363</t>
   </si>
   <si>
@@ -1230,12 +1167,6 @@
     <t>CMPT 379 - Principles of Compiler Design</t>
   </si>
   <si>
-    <t>CMPT210,CMPT225,CMPT295,MACM201</t>
-  </si>
-  <si>
-    <t>REQ- (MACM 201 or CMPT 210), (CMPT 295 or ENSC 215) and CMPT 225, all with a minimum grade of C-.</t>
-  </si>
-  <si>
     <t>CMPT 383 - Comparative Programming Languages</t>
   </si>
   <si>
@@ -1311,12 +1242,6 @@
     <t>CMPT 420 - Deep Learning</t>
   </si>
   <si>
-    <t>CMPT410,CMPT419</t>
-  </si>
-  <si>
-    <t>REQ- CMPT 410 or CMPT 419 (Machine Learning), with a minimum grade of C-.  Students with credit for CMPT 728 may not take this course for further credit.</t>
-  </si>
-  <si>
     <t>CMPT427</t>
   </si>
   <si>
@@ -1392,9 +1317,6 @@
     <t>CMPT 466 - Animation</t>
   </si>
   <si>
-    <t>REQ-CMPT 361, MACM 316, both with a minimum grade of C-. Students with credit for CMPT 469 between 2003 and 2007 or equivalent may not take CMPT 464 for further credit..</t>
-  </si>
-  <si>
     <t>CMPT469</t>
   </si>
   <si>
@@ -1506,9 +1428,6 @@
     <t>CMPT361,CMPT726</t>
   </si>
   <si>
-    <t>REQ-CMPT 361 or equivalent and CMPT 726.</t>
-  </si>
-  <si>
     <t>CMPT726</t>
   </si>
   <si>
@@ -1608,18 +1527,6 @@
     <t>CMPT 820 - Multimedia Systems</t>
   </si>
   <si>
-    <t>CMPT822</t>
-  </si>
-  <si>
-    <t>CMPT 822 - Computational Vision</t>
-  </si>
-  <si>
-    <t>CMPT828</t>
-  </si>
-  <si>
-    <t>CMPT 828 - Illumination in Images and Video</t>
-  </si>
-  <si>
     <t>CMPT839</t>
   </si>
   <si>
@@ -1758,30 +1665,18 @@
     <t>MATH 100 - Precalculus</t>
   </si>
   <si>
-    <t>FANX99,MATHX11,MATHX12</t>
-  </si>
-  <si>
-    <t>REQ-PreCalc11 or Fou.Math11(or equiv.) min.B or PreCalc12(or equiv.) min.C &amp; FAN cred, or FANX99 min.B-, or satisfy Quant.Place.Test. MATH100 cannot count for math.minor,major or hon.degree. Students w/ MATH150,151,154, or 157 cannot take MATH100. Quant.</t>
-  </si>
-  <si>
     <t>MATH150</t>
   </si>
   <si>
     <t>MATH 150 - Calculus I with Review</t>
   </si>
   <si>
-    <t>REQ-Pre-Calc 12 (or eqv.) with at least B+, or MATH100 with at least B-, or achieving satisfactory grade on SFU Calculus Readiness Test. Students with credit for either MATH151,154 or 157 may not take MATH150 for further credit. Quantitative.</t>
-  </si>
-  <si>
     <t>MATH154</t>
   </si>
   <si>
     <t>MATH 154 - Mathematics for the Life Sciences I</t>
   </si>
   <si>
-    <t>REQ-Pre-Calc 12 (or equiv.) with at least B, or MATH 100 with at least C-, or achieving a satis. grade on the SFU Calculus Readiness Test. Students with cred. for MATH 150, 151 or 157 may not take MATH 154 for further credit. Quantitative</t>
-  </si>
-  <si>
     <t>MATH155</t>
   </si>
   <si>
@@ -1800,9 +1695,6 @@
     <t>MATH 157 - Calculus I for the Social Sciences</t>
   </si>
   <si>
-    <t>REQ- Pre-Calc 12 (or equiv.) with at least B, or MATH100 with at least C, or a satisfactory grade on the SFU Calculus Readiness Test. Students with credit for either MATH150, 151, or 154 may not take MATH157 for further cred. Quantitative</t>
-  </si>
-  <si>
     <t>MATH158</t>
   </si>
   <si>
@@ -1866,9 +1758,6 @@
     <t>FANX99,MATH152,MATH155,MATH158</t>
   </si>
   <si>
-    <t>REQ: MATH 152 or 155 or 158, with a minimum grade of C-. Students wishing an intuitive appreciation of a broad range of statistical strategies may wish to take STAT 100 first.   Quantitative</t>
-  </si>
-  <si>
     <t>STAT271</t>
   </si>
   <si>
@@ -1879,6 +1768,111 @@
   </si>
   <si>
     <t>CoRequisites</t>
+  </si>
+  <si>
+    <t>CMPT225,STAT271</t>
+  </si>
+  <si>
+    <t>REQ-CMPT 225 and STAT 271, all with a minimum grade of C-. Recommended: MATH 251.</t>
+  </si>
+  <si>
+    <t>REQ-CMPT 225 and STAT 271, both with a minimum grade of C-. Recommended: MATH 251.</t>
+  </si>
+  <si>
+    <t>CMPT210,CMPT225,CMPT295,ENSC254,MACM201</t>
+  </si>
+  <si>
+    <t>REQ-(MACM 201 or CMPT 210), (CMPT 295 or ENSC 254) and CMPT 225, all with a minimum grade of C-.</t>
+  </si>
+  <si>
+    <t>CMPT310,CMPT410,CMPT419</t>
+  </si>
+  <si>
+    <t>REQ-CMPT 310, CMPT 410 or CMPT 419 (Machine Learning), both with a minimum grade of C-. Students with credit for CMPT 728 may not take this course for further credit.</t>
+  </si>
+  <si>
+    <t>CMPT455</t>
+  </si>
+  <si>
+    <t>CMPT 455 - Data Mining</t>
+  </si>
+  <si>
+    <t>CMPT354,STAT271</t>
+  </si>
+  <si>
+    <t>REQ-CMPT 354 and STAT 271. Students with credit for CMPT 459 under the title "Data Mining" may not take this course for further credit.</t>
+  </si>
+  <si>
+    <t>REQ-Recommended: CMPT 361 and CMPT 726.</t>
+  </si>
+  <si>
+    <t>REQ-CMPT 732. This course is only available to students enrolled in the master of science in big data program.</t>
+  </si>
+  <si>
+    <t>CMPT776</t>
+  </si>
+  <si>
+    <t>CMPT 776 - Quantum Algorithms</t>
+  </si>
+  <si>
+    <t>CMPT790</t>
+  </si>
+  <si>
+    <t>CMPT 790 - Big Data Portfolio</t>
+  </si>
+  <si>
+    <t>REQ-CMPT 733.</t>
+  </si>
+  <si>
+    <t>CMPT791</t>
+  </si>
+  <si>
+    <t>CMPT 791 - Visual Computing Portfolio</t>
+  </si>
+  <si>
+    <t>REQ-CMPT 743.</t>
+  </si>
+  <si>
+    <t>CMPT792</t>
+  </si>
+  <si>
+    <t>CMPT 792 - Cybersecurity Portfolio</t>
+  </si>
+  <si>
+    <t>REQ-CMPT 783</t>
+  </si>
+  <si>
+    <t>REQ-BC Pre-Calculus 12 or BC Calculus 12 (or equivalent), or any of MATH 100, 150, 151, 154, 157. Quantitative</t>
+  </si>
+  <si>
+    <t>PHYS141</t>
+  </si>
+  <si>
+    <t>FANX92,FANX99,MATHX11,MATHX12</t>
+  </si>
+  <si>
+    <t>REQ-(Pre-Calculus 11 or Foundations 11 (or equivalent) with ≥B, or Pre-Calculus 12 with ≥C and SFU FAN credit), or (FAN X92 or X99 with ≥B−), or a satisfactory SFU Q Placement Test score. No credit if taken after MATH 110/150/151/154/157. Quantitative.</t>
+  </si>
+  <si>
+    <t>REQ-Pre-Calculus 12 (or equivalent) with a grade of at least B+, or MATH 100 with a grade of at least B-.  Students with credit for either MATH 151, 154 or 157 may not take MATH 150 for further credit. Quantitative.</t>
+  </si>
+  <si>
+    <t>REQ- Pre-Calculus 12 (or equivalent) with a grade of at least A, or MATH 100 with a grade of at least B.  Students with credit for either MATH 150, 154 or 157 may not take MATH 151 for further credit. Quantitative.</t>
+  </si>
+  <si>
+    <t>FANX99,MATH100,MATH110,MATHX12</t>
+  </si>
+  <si>
+    <t>REQ-Pre-Calculus 12 (or equivalent) with a grade of at least B, or MATH 100 with a grade of at least C-, or MATH 110 with a grade of at least C-. Students with credit for either MATH 150, 151 or 157 may not take MATH 154 for further credit. Quantitative.</t>
+  </si>
+  <si>
+    <t>REQ- Pre-Calculus 12 (or equivalent) with a grade of at least B, or MATH 100 with a grade of at least C, or MATH 110 with a grade of at least C.  Students with credit for either MATH 150, 151 or 154 may not take MATH 157 for further credit. Quantitative.</t>
+  </si>
+  <si>
+    <t>REQ-MATH 152 or 155 or 158, with a minimum grade of C-. Students wishing an intuitive appreciation of a broad range of statistical strategies may wish to take STAT 100 first.   Quantitative</t>
+  </si>
+  <si>
+    <t>REQ-CHIN 290 or permission of the course instructor.</t>
   </si>
 </sst>
 </file>
@@ -2230,10 +2224,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF7FFA83-974B-42CB-99AF-BCCEDC4292B4}">
-  <dimension ref="A1:I206"/>
+  <dimension ref="A1:I202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="A2" sqref="A2:I202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2252,10 +2246,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>612</v>
+        <v>575</v>
       </c>
       <c r="F1" t="s">
-        <v>613</v>
+        <v>576</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -2269,36 +2263,36 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>530</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>531</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>532</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>299</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>533</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>531</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>534</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>535</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -2307,10 +2301,10 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
@@ -2320,14 +2314,11 @@
       </c>
       <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="I3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>286</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -2336,10 +2327,10 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>287</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>288</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
@@ -2351,12 +2342,12 @@
         <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>23</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>290</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -2365,10 +2356,10 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>291</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>286</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
@@ -2380,12 +2371,12 @@
         <v>14</v>
       </c>
       <c r="I5" t="s">
-        <v>27</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>293</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -2394,10 +2385,10 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>294</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>295</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
@@ -2409,12 +2400,12 @@
         <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>31</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -2423,10 +2414,10 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
@@ -2436,11 +2427,14 @@
       </c>
       <c r="H7" t="s">
         <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>297</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -2449,13 +2443,13 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>298</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>299</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>300</v>
       </c>
       <c r="G8" t="s">
         <v>13</v>
@@ -2464,12 +2458,12 @@
         <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>38</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -2478,10 +2472,10 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
@@ -2491,14 +2485,11 @@
       </c>
       <c r="H9" t="s">
         <v>14</v>
-      </c>
-      <c r="I9" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>302</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -2507,10 +2498,10 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>303</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>
@@ -2520,14 +2511,11 @@
       </c>
       <c r="H10" t="s">
         <v>14</v>
-      </c>
-      <c r="I10" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>304</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
@@ -2536,10 +2524,10 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>305</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
@@ -2551,12 +2539,12 @@
         <v>14</v>
       </c>
       <c r="I11" t="s">
-        <v>41</v>
+        <v>306</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -2565,7 +2553,7 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
@@ -2582,7 +2570,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>307</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -2591,7 +2579,7 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>308</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
@@ -2608,7 +2596,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>309</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -2617,10 +2605,10 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>310</v>
       </c>
       <c r="E14" t="s">
-        <v>54</v>
+        <v>299</v>
       </c>
       <c r="F14" t="s">
         <v>12</v>
@@ -2632,12 +2620,12 @@
         <v>14</v>
       </c>
       <c r="I14" t="s">
-        <v>55</v>
+        <v>311</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>312</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -2646,10 +2634,10 @@
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>313</v>
       </c>
       <c r="E15" t="s">
-        <v>58</v>
+        <v>314</v>
       </c>
       <c r="F15" t="s">
         <v>12</v>
@@ -2661,12 +2649,12 @@
         <v>14</v>
       </c>
       <c r="I15" t="s">
-        <v>59</v>
+        <v>315</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
@@ -2675,10 +2663,10 @@
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="E16" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="F16" t="s">
         <v>12</v>
@@ -2690,12 +2678,12 @@
         <v>14</v>
       </c>
       <c r="I16" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
@@ -2704,10 +2692,10 @@
         <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="E17" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="F17" t="s">
         <v>12</v>
@@ -2719,12 +2707,12 @@
         <v>14</v>
       </c>
       <c r="I17" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>316</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
@@ -2733,10 +2721,10 @@
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>69</v>
+        <v>317</v>
       </c>
       <c r="E18" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="F18" t="s">
         <v>12</v>
@@ -2748,12 +2736,12 @@
         <v>14</v>
       </c>
       <c r="I18" t="s">
-        <v>71</v>
+        <v>318</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>319</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
@@ -2762,10 +2750,10 @@
         <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>73</v>
+        <v>320</v>
       </c>
       <c r="E19" t="s">
-        <v>30</v>
+        <v>321</v>
       </c>
       <c r="F19" t="s">
         <v>12</v>
@@ -2777,12 +2765,12 @@
         <v>14</v>
       </c>
       <c r="I19" t="s">
-        <v>74</v>
+        <v>322</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
@@ -2791,10 +2779,10 @@
         <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="F20" t="s">
         <v>12</v>
@@ -2806,12 +2794,12 @@
         <v>14</v>
       </c>
       <c r="I20" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>78</v>
+        <v>323</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
@@ -2820,10 +2808,10 @@
         <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>79</v>
+        <v>324</v>
       </c>
       <c r="E21" t="s">
-        <v>54</v>
+        <v>325</v>
       </c>
       <c r="F21" t="s">
         <v>12</v>
@@ -2835,12 +2823,12 @@
         <v>14</v>
       </c>
       <c r="I21" t="s">
-        <v>80</v>
+        <v>326</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
@@ -2849,10 +2837,10 @@
         <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="E22" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="F22" t="s">
         <v>12</v>
@@ -2864,12 +2852,12 @@
         <v>14</v>
       </c>
       <c r="I22" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>85</v>
+        <v>327</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
@@ -2878,10 +2866,10 @@
         <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>86</v>
+        <v>328</v>
       </c>
       <c r="E23" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F23" t="s">
         <v>12</v>
@@ -2891,11 +2879,14 @@
       </c>
       <c r="H23" t="s">
         <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="B24" t="s">
         <v>8</v>
@@ -2904,10 +2895,10 @@
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="E24" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
         <v>12</v>
@@ -2917,14 +2908,11 @@
       </c>
       <c r="H24" t="s">
         <v>14</v>
-      </c>
-      <c r="I24" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
@@ -2933,10 +2921,10 @@
         <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>92</v>
+        <v>330</v>
       </c>
       <c r="E25" t="s">
-        <v>93</v>
+        <v>299</v>
       </c>
       <c r="F25" t="s">
         <v>12</v>
@@ -2946,11 +2934,14 @@
       </c>
       <c r="H25" t="s">
         <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>94</v>
+        <v>332</v>
       </c>
       <c r="B26" t="s">
         <v>8</v>
@@ -2959,10 +2950,10 @@
         <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>95</v>
+        <v>333</v>
       </c>
       <c r="E26" t="s">
-        <v>12</v>
+        <v>334</v>
       </c>
       <c r="F26" t="s">
         <v>12</v>
@@ -2972,11 +2963,14 @@
       </c>
       <c r="H26" t="s">
         <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>96</v>
+        <v>336</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
@@ -2985,10 +2979,10 @@
         <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>97</v>
+        <v>337</v>
       </c>
       <c r="E27" t="s">
-        <v>98</v>
+        <v>338</v>
       </c>
       <c r="F27" t="s">
         <v>12</v>
@@ -3000,12 +2994,12 @@
         <v>14</v>
       </c>
       <c r="I27" t="s">
-        <v>99</v>
+        <v>339</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
@@ -3014,10 +3008,10 @@
         <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="E28" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="F28" t="s">
         <v>12</v>
@@ -3029,12 +3023,12 @@
         <v>14</v>
       </c>
       <c r="I28" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="B29" t="s">
         <v>8</v>
@@ -3043,10 +3037,10 @@
         <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="E29" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="F29" t="s">
         <v>12</v>
@@ -3058,12 +3052,12 @@
         <v>14</v>
       </c>
       <c r="I29" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>108</v>
+        <v>340</v>
       </c>
       <c r="B30" t="s">
         <v>8</v>
@@ -3072,10 +3066,10 @@
         <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>109</v>
+        <v>341</v>
       </c>
       <c r="E30" t="s">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
         <v>12</v>
@@ -3087,12 +3081,12 @@
         <v>14</v>
       </c>
       <c r="I30" t="s">
-        <v>111</v>
+        <v>342</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>112</v>
+        <v>343</v>
       </c>
       <c r="B31" t="s">
         <v>8</v>
@@ -3101,10 +3095,10 @@
         <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>113</v>
+        <v>344</v>
       </c>
       <c r="E31" t="s">
-        <v>12</v>
+        <v>345</v>
       </c>
       <c r="F31" t="s">
         <v>12</v>
@@ -3114,11 +3108,14 @@
       </c>
       <c r="H31" t="s">
         <v>14</v>
+      </c>
+      <c r="I31" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>114</v>
+        <v>347</v>
       </c>
       <c r="B32" t="s">
         <v>8</v>
@@ -3127,10 +3124,10 @@
         <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>115</v>
+        <v>348</v>
       </c>
       <c r="E32" t="s">
-        <v>116</v>
+        <v>349</v>
       </c>
       <c r="F32" t="s">
         <v>12</v>
@@ -3142,12 +3139,12 @@
         <v>14</v>
       </c>
       <c r="I32" t="s">
-        <v>117</v>
+        <v>350</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>118</v>
+        <v>351</v>
       </c>
       <c r="B33" t="s">
         <v>8</v>
@@ -3156,10 +3153,10 @@
         <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>119</v>
+        <v>352</v>
       </c>
       <c r="E33" t="s">
-        <v>116</v>
+        <v>353</v>
       </c>
       <c r="F33" t="s">
         <v>12</v>
@@ -3171,7 +3168,7 @@
         <v>14</v>
       </c>
       <c r="I33" t="s">
-        <v>120</v>
+        <v>354</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
@@ -3246,7 +3243,7 @@
         <v>129</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>577</v>
       </c>
       <c r="F36" t="s">
         <v>12</v>
@@ -3258,12 +3255,12 @@
         <v>14</v>
       </c>
       <c r="I36" t="s">
-        <v>15</v>
+        <v>578</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>130</v>
+        <v>355</v>
       </c>
       <c r="B37" t="s">
         <v>8</v>
@@ -3272,10 +3269,10 @@
         <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>131</v>
+        <v>356</v>
       </c>
       <c r="E37" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F37" t="s">
         <v>12</v>
@@ -3287,12 +3284,12 @@
         <v>14</v>
       </c>
       <c r="I37" t="s">
-        <v>132</v>
+        <v>357</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B38" t="s">
         <v>8</v>
@@ -3301,10 +3298,10 @@
         <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E38" t="s">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
         <v>12</v>
@@ -3316,12 +3313,12 @@
         <v>14</v>
       </c>
       <c r="I38" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B39" t="s">
         <v>8</v>
@@ -3330,10 +3327,10 @@
         <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E39" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F39" t="s">
         <v>12</v>
@@ -3345,12 +3342,12 @@
         <v>14</v>
       </c>
       <c r="I39" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B40" t="s">
         <v>8</v>
@@ -3359,10 +3356,10 @@
         <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E40" t="s">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="F40" t="s">
         <v>12</v>
@@ -3372,11 +3369,14 @@
       </c>
       <c r="H40" t="s">
         <v>14</v>
+      </c>
+      <c r="I40" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>143</v>
+        <v>7</v>
       </c>
       <c r="B41" t="s">
         <v>8</v>
@@ -3385,10 +3385,10 @@
         <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>144</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
         <v>12</v>
@@ -3398,11 +3398,14 @@
       </c>
       <c r="H41" t="s">
         <v>14</v>
+      </c>
+      <c r="I41" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>145</v>
+        <v>358</v>
       </c>
       <c r="B42" t="s">
         <v>8</v>
@@ -3411,10 +3414,10 @@
         <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>146</v>
+        <v>359</v>
       </c>
       <c r="E42" t="s">
-        <v>12</v>
+        <v>577</v>
       </c>
       <c r="F42" t="s">
         <v>12</v>
@@ -3424,11 +3427,14 @@
       </c>
       <c r="H42" t="s">
         <v>14</v>
+      </c>
+      <c r="I42" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>147</v>
+        <v>16</v>
       </c>
       <c r="B43" t="s">
         <v>8</v>
@@ -3437,10 +3443,10 @@
         <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>148</v>
+        <v>17</v>
       </c>
       <c r="E43" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F43" t="s">
         <v>12</v>
@@ -3450,11 +3456,14 @@
       </c>
       <c r="H43" t="s">
         <v>14</v>
+      </c>
+      <c r="I43" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>149</v>
+        <v>360</v>
       </c>
       <c r="B44" t="s">
         <v>8</v>
@@ -3463,10 +3472,10 @@
         <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>150</v>
+        <v>361</v>
       </c>
       <c r="E44" t="s">
-        <v>12</v>
+        <v>362</v>
       </c>
       <c r="F44" t="s">
         <v>12</v>
@@ -3476,11 +3485,14 @@
       </c>
       <c r="H44" t="s">
         <v>14</v>
+      </c>
+      <c r="I44" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>151</v>
+        <v>364</v>
       </c>
       <c r="B45" t="s">
         <v>8</v>
@@ -3489,10 +3501,10 @@
         <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>152</v>
+        <v>365</v>
       </c>
       <c r="E45" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F45" t="s">
         <v>12</v>
@@ -3502,11 +3514,14 @@
       </c>
       <c r="H45" t="s">
         <v>14</v>
+      </c>
+      <c r="I45" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>153</v>
+        <v>367</v>
       </c>
       <c r="B46" t="s">
         <v>8</v>
@@ -3515,10 +3530,10 @@
         <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>154</v>
+        <v>368</v>
       </c>
       <c r="E46" t="s">
-        <v>12</v>
+        <v>369</v>
       </c>
       <c r="F46" t="s">
         <v>12</v>
@@ -3528,11 +3543,14 @@
       </c>
       <c r="H46" t="s">
         <v>14</v>
+      </c>
+      <c r="I46" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>155</v>
+        <v>20</v>
       </c>
       <c r="B47" t="s">
         <v>8</v>
@@ -3541,10 +3559,10 @@
         <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>156</v>
+        <v>21</v>
       </c>
       <c r="E47" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F47" t="s">
         <v>12</v>
@@ -3554,11 +3572,14 @@
       </c>
       <c r="H47" t="s">
         <v>14</v>
+      </c>
+      <c r="I47" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>157</v>
+        <v>371</v>
       </c>
       <c r="B48" t="s">
         <v>8</v>
@@ -3567,10 +3588,10 @@
         <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>158</v>
+        <v>372</v>
       </c>
       <c r="E48" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="F48" t="s">
         <v>12</v>
@@ -3580,11 +3601,14 @@
       </c>
       <c r="H48" t="s">
         <v>14</v>
+      </c>
+      <c r="I48" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>159</v>
+        <v>24</v>
       </c>
       <c r="B49" t="s">
         <v>8</v>
@@ -3593,10 +3617,10 @@
         <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>160</v>
+        <v>25</v>
       </c>
       <c r="E49" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F49" t="s">
         <v>12</v>
@@ -3606,11 +3630,14 @@
       </c>
       <c r="H49" t="s">
         <v>14</v>
+      </c>
+      <c r="I49" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>161</v>
+        <v>374</v>
       </c>
       <c r="B50" t="s">
         <v>8</v>
@@ -3619,10 +3646,10 @@
         <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>162</v>
+        <v>375</v>
       </c>
       <c r="E50" t="s">
-        <v>12</v>
+        <v>580</v>
       </c>
       <c r="F50" t="s">
         <v>12</v>
@@ -3632,11 +3659,14 @@
       </c>
       <c r="H50" t="s">
         <v>14</v>
+      </c>
+      <c r="I50" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>163</v>
+        <v>216</v>
       </c>
       <c r="B51" t="s">
         <v>8</v>
@@ -3645,10 +3675,10 @@
         <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>164</v>
+        <v>376</v>
       </c>
       <c r="E51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
         <v>12</v>
@@ -3658,11 +3688,14 @@
       </c>
       <c r="H51" t="s">
         <v>14</v>
+      </c>
+      <c r="I51" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>165</v>
+        <v>377</v>
       </c>
       <c r="B52" t="s">
         <v>8</v>
@@ -3671,10 +3704,10 @@
         <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>166</v>
+        <v>378</v>
       </c>
       <c r="E52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
         <v>12</v>
@@ -3688,7 +3721,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>167</v>
+        <v>28</v>
       </c>
       <c r="B53" t="s">
         <v>8</v>
@@ -3697,10 +3730,10 @@
         <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>168</v>
+        <v>29</v>
       </c>
       <c r="E53" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F53" t="s">
         <v>12</v>
@@ -3710,11 +3743,14 @@
       </c>
       <c r="H53" t="s">
         <v>14</v>
+      </c>
+      <c r="I53" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>169</v>
+        <v>32</v>
       </c>
       <c r="B54" t="s">
         <v>8</v>
@@ -3723,10 +3759,10 @@
         <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>170</v>
+        <v>33</v>
       </c>
       <c r="E54" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="F54" t="s">
         <v>12</v>
@@ -3740,7 +3776,7 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>171</v>
+        <v>379</v>
       </c>
       <c r="B55" t="s">
         <v>8</v>
@@ -3749,10 +3785,10 @@
         <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>172</v>
+        <v>380</v>
       </c>
       <c r="E55" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="F55" t="s">
         <v>12</v>
@@ -3762,11 +3798,14 @@
       </c>
       <c r="H55" t="s">
         <v>14</v>
+      </c>
+      <c r="I55" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>173</v>
+        <v>382</v>
       </c>
       <c r="B56" t="s">
         <v>8</v>
@@ -3775,10 +3814,10 @@
         <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>174</v>
+        <v>383</v>
       </c>
       <c r="E56" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="F56" t="s">
         <v>12</v>
@@ -3788,11 +3827,14 @@
       </c>
       <c r="H56" t="s">
         <v>14</v>
+      </c>
+      <c r="I56" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>175</v>
+        <v>385</v>
       </c>
       <c r="B57" t="s">
         <v>8</v>
@@ -3801,10 +3843,10 @@
         <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>176</v>
+        <v>386</v>
       </c>
       <c r="E57" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="F57" t="s">
         <v>12</v>
@@ -3814,52 +3856,55 @@
       </c>
       <c r="H57" t="s">
         <v>14</v>
+      </c>
+      <c r="I57" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>89</v>
+        <v>388</v>
       </c>
       <c r="B58" t="s">
         <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>177</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>178</v>
+        <v>389</v>
       </c>
       <c r="E58" t="s">
-        <v>179</v>
+        <v>66</v>
       </c>
       <c r="F58" t="s">
         <v>12</v>
       </c>
       <c r="G58" t="s">
-        <v>180</v>
+        <v>13</v>
       </c>
       <c r="H58" t="s">
-        <v>177</v>
+        <v>14</v>
       </c>
       <c r="I58" t="s">
-        <v>181</v>
+        <v>390</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>182</v>
+        <v>391</v>
       </c>
       <c r="B59" t="s">
         <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>183</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>184</v>
+        <v>392</v>
       </c>
       <c r="E59" t="s">
-        <v>185</v>
+        <v>66</v>
       </c>
       <c r="F59" t="s">
         <v>12</v>
@@ -3868,15 +3913,15 @@
         <v>13</v>
       </c>
       <c r="H59" t="s">
-        <v>186</v>
+        <v>14</v>
       </c>
       <c r="I59" t="s">
-        <v>187</v>
+        <v>393</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>188</v>
+        <v>35</v>
       </c>
       <c r="B60" t="s">
         <v>8</v>
@@ -3885,10 +3930,10 @@
         <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>189</v>
+        <v>36</v>
       </c>
       <c r="E60" t="s">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="F60" t="s">
         <v>12</v>
@@ -3900,24 +3945,24 @@
         <v>14</v>
       </c>
       <c r="I60" t="s">
-        <v>190</v>
+        <v>38</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>191</v>
+        <v>39</v>
       </c>
       <c r="B61" t="s">
         <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>192</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>193</v>
+        <v>40</v>
       </c>
       <c r="E61" t="s">
-        <v>194</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
         <v>12</v>
@@ -3926,157 +3971,154 @@
         <v>13</v>
       </c>
       <c r="H61" t="s">
-        <v>195</v>
+        <v>14</v>
       </c>
       <c r="I61" t="s">
-        <v>196</v>
+        <v>41</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>197</v>
+        <v>42</v>
       </c>
       <c r="B62" t="s">
         <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>177</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>198</v>
+        <v>43</v>
       </c>
       <c r="E62" t="s">
-        <v>199</v>
+        <v>44</v>
       </c>
       <c r="F62" t="s">
         <v>12</v>
       </c>
       <c r="G62" t="s">
-        <v>180</v>
+        <v>13</v>
       </c>
       <c r="H62" t="s">
-        <v>177</v>
+        <v>14</v>
       </c>
       <c r="I62" t="s">
-        <v>200</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>201</v>
+        <v>46</v>
       </c>
       <c r="B63" t="s">
         <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>202</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>203</v>
+        <v>47</v>
       </c>
       <c r="E63" t="s">
-        <v>204</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
         <v>12</v>
       </c>
       <c r="G63" t="s">
-        <v>205</v>
+        <v>13</v>
       </c>
       <c r="H63" t="s">
-        <v>206</v>
+        <v>14</v>
       </c>
       <c r="I63" t="s">
-        <v>207</v>
+        <v>41</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>208</v>
+        <v>48</v>
       </c>
       <c r="B64" t="s">
         <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>202</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>209</v>
+        <v>49</v>
       </c>
       <c r="E64" t="s">
-        <v>210</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
         <v>12</v>
       </c>
       <c r="G64" t="s">
-        <v>205</v>
+        <v>13</v>
       </c>
       <c r="H64" t="s">
-        <v>206</v>
-      </c>
-      <c r="I64" t="s">
-        <v>211</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>212</v>
+        <v>394</v>
       </c>
       <c r="B65" t="s">
         <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>202</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>213</v>
+        <v>395</v>
       </c>
       <c r="E65" t="s">
-        <v>214</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
         <v>12</v>
       </c>
       <c r="G65" t="s">
-        <v>205</v>
+        <v>13</v>
       </c>
       <c r="H65" t="s">
-        <v>206</v>
-      </c>
-      <c r="I65" t="s">
-        <v>215</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>93</v>
+        <v>396</v>
       </c>
       <c r="B66" t="s">
         <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>216</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>217</v>
+        <v>397</v>
       </c>
       <c r="E66" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F66" t="s">
         <v>12</v>
       </c>
       <c r="G66" t="s">
-        <v>216</v>
+        <v>13</v>
       </c>
       <c r="H66" t="s">
-        <v>218</v>
+        <v>14</v>
+      </c>
+      <c r="I66" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>219</v>
+        <v>50</v>
       </c>
       <c r="B67" t="s">
         <v>8</v>
@@ -4085,10 +4127,10 @@
         <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>220</v>
+        <v>51</v>
       </c>
       <c r="E67" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
         <v>12</v>
@@ -4098,14 +4140,11 @@
       </c>
       <c r="H67" t="s">
         <v>14</v>
-      </c>
-      <c r="I67" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>222</v>
+        <v>399</v>
       </c>
       <c r="B68" t="s">
         <v>8</v>
@@ -4114,10 +4153,10 @@
         <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>223</v>
+        <v>400</v>
       </c>
       <c r="E68" t="s">
-        <v>224</v>
+        <v>582</v>
       </c>
       <c r="F68" t="s">
         <v>12</v>
@@ -4129,12 +4168,12 @@
         <v>14</v>
       </c>
       <c r="I68" t="s">
-        <v>225</v>
+        <v>583</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
       <c r="B69" t="s">
         <v>8</v>
@@ -4143,7 +4182,7 @@
         <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c r="E69" t="s">
         <v>54</v>
@@ -4158,12 +4197,12 @@
         <v>14</v>
       </c>
       <c r="I69" t="s">
-        <v>228</v>
+        <v>55</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>229</v>
+        <v>401</v>
       </c>
       <c r="B70" t="s">
         <v>8</v>
@@ -4172,10 +4211,10 @@
         <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>230</v>
+        <v>402</v>
       </c>
       <c r="E70" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="F70" t="s">
         <v>12</v>
@@ -4187,12 +4226,12 @@
         <v>14</v>
       </c>
       <c r="I70" t="s">
-        <v>231</v>
+        <v>403</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>232</v>
+        <v>58</v>
       </c>
       <c r="B71" t="s">
         <v>8</v>
@@ -4201,10 +4240,10 @@
         <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>233</v>
+        <v>404</v>
       </c>
       <c r="E71" t="s">
-        <v>12</v>
+        <v>401</v>
       </c>
       <c r="F71" t="s">
         <v>12</v>
@@ -4216,12 +4255,12 @@
         <v>14</v>
       </c>
       <c r="I71" t="s">
-        <v>234</v>
+        <v>405</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>235</v>
+        <v>56</v>
       </c>
       <c r="B72" t="s">
         <v>8</v>
@@ -4230,10 +4269,10 @@
         <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>236</v>
+        <v>57</v>
       </c>
       <c r="E72" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="F72" t="s">
         <v>12</v>
@@ -4245,12 +4284,12 @@
         <v>14</v>
       </c>
       <c r="I72" t="s">
-        <v>237</v>
+        <v>59</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>238</v>
+        <v>406</v>
       </c>
       <c r="B73" t="s">
         <v>8</v>
@@ -4259,10 +4298,10 @@
         <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>239</v>
+        <v>407</v>
       </c>
       <c r="E73" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="F73" t="s">
         <v>12</v>
@@ -4274,12 +4313,12 @@
         <v>14</v>
       </c>
       <c r="I73" t="s">
-        <v>240</v>
+        <v>408</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>241</v>
+        <v>409</v>
       </c>
       <c r="B74" t="s">
         <v>8</v>
@@ -4288,10 +4327,10 @@
         <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>242</v>
+        <v>410</v>
       </c>
       <c r="E74" t="s">
-        <v>12</v>
+        <v>411</v>
       </c>
       <c r="F74" t="s">
         <v>12</v>
@@ -4303,12 +4342,12 @@
         <v>14</v>
       </c>
       <c r="I74" t="s">
-        <v>243</v>
+        <v>412</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>244</v>
+        <v>60</v>
       </c>
       <c r="B75" t="s">
         <v>8</v>
@@ -4317,10 +4356,10 @@
         <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>245</v>
+        <v>61</v>
       </c>
       <c r="E75" t="s">
-        <v>246</v>
+        <v>62</v>
       </c>
       <c r="F75" t="s">
         <v>12</v>
@@ -4332,12 +4371,12 @@
         <v>14</v>
       </c>
       <c r="I75" t="s">
-        <v>247</v>
+        <v>63</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>248</v>
+        <v>64</v>
       </c>
       <c r="B76" t="s">
         <v>8</v>
@@ -4346,10 +4385,10 @@
         <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>249</v>
+        <v>65</v>
       </c>
       <c r="E76" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="F76" t="s">
         <v>12</v>
@@ -4359,11 +4398,14 @@
       </c>
       <c r="H76" t="s">
         <v>14</v>
+      </c>
+      <c r="I76" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>250</v>
+        <v>413</v>
       </c>
       <c r="B77" t="s">
         <v>8</v>
@@ -4372,10 +4414,10 @@
         <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>251</v>
+        <v>414</v>
       </c>
       <c r="E77" t="s">
-        <v>12</v>
+        <v>340</v>
       </c>
       <c r="F77" t="s">
         <v>12</v>
@@ -4385,11 +4427,14 @@
       </c>
       <c r="H77" t="s">
         <v>14</v>
+      </c>
+      <c r="I77" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>252</v>
+        <v>68</v>
       </c>
       <c r="B78" t="s">
         <v>8</v>
@@ -4398,10 +4443,10 @@
         <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>253</v>
+        <v>69</v>
       </c>
       <c r="E78" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="F78" t="s">
         <v>12</v>
@@ -4413,12 +4458,12 @@
         <v>14</v>
       </c>
       <c r="I78" t="s">
-        <v>254</v>
+        <v>71</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>255</v>
+        <v>584</v>
       </c>
       <c r="B79" t="s">
         <v>8</v>
@@ -4427,10 +4472,10 @@
         <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>256</v>
+        <v>585</v>
       </c>
       <c r="E79" t="s">
-        <v>12</v>
+        <v>586</v>
       </c>
       <c r="F79" t="s">
         <v>12</v>
@@ -4440,11 +4485,14 @@
       </c>
       <c r="H79" t="s">
         <v>14</v>
+      </c>
+      <c r="I79" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>257</v>
+        <v>416</v>
       </c>
       <c r="B80" t="s">
         <v>8</v>
@@ -4453,10 +4501,10 @@
         <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>258</v>
+        <v>417</v>
       </c>
       <c r="E80" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F80" t="s">
         <v>12</v>
@@ -4466,11 +4514,14 @@
       </c>
       <c r="H80" t="s">
         <v>14</v>
+      </c>
+      <c r="I80" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>259</v>
+        <v>419</v>
       </c>
       <c r="B81" t="s">
         <v>8</v>
@@ -4479,10 +4530,10 @@
         <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>260</v>
+        <v>420</v>
       </c>
       <c r="E81" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F81" t="s">
         <v>12</v>
@@ -4492,11 +4543,14 @@
       </c>
       <c r="H81" t="s">
         <v>14</v>
+      </c>
+      <c r="I81" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>261</v>
+        <v>421</v>
       </c>
       <c r="B82" t="s">
         <v>8</v>
@@ -4505,10 +4559,10 @@
         <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>262</v>
+        <v>422</v>
       </c>
       <c r="E82" t="s">
-        <v>12</v>
+        <v>358</v>
       </c>
       <c r="F82" t="s">
         <v>12</v>
@@ -4518,11 +4572,14 @@
       </c>
       <c r="H82" t="s">
         <v>14</v>
+      </c>
+      <c r="I82" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>263</v>
+        <v>72</v>
       </c>
       <c r="B83" t="s">
         <v>8</v>
@@ -4531,10 +4588,10 @@
         <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>264</v>
+        <v>73</v>
       </c>
       <c r="E83" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F83" t="s">
         <v>12</v>
@@ -4544,11 +4601,14 @@
       </c>
       <c r="H83" t="s">
         <v>14</v>
+      </c>
+      <c r="I83" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>265</v>
+        <v>424</v>
       </c>
       <c r="B84" t="s">
         <v>8</v>
@@ -4557,10 +4617,10 @@
         <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>266</v>
+        <v>425</v>
       </c>
       <c r="E84" t="s">
-        <v>12</v>
+        <v>358</v>
       </c>
       <c r="F84" t="s">
         <v>12</v>
@@ -4570,11 +4630,14 @@
       </c>
       <c r="H84" t="s">
         <v>14</v>
+      </c>
+      <c r="I84" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>267</v>
+        <v>75</v>
       </c>
       <c r="B85" t="s">
         <v>8</v>
@@ -4583,10 +4646,10 @@
         <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>268</v>
+        <v>76</v>
       </c>
       <c r="E85" t="s">
-        <v>269</v>
+        <v>30</v>
       </c>
       <c r="F85" t="s">
         <v>12</v>
@@ -4598,12 +4661,12 @@
         <v>14</v>
       </c>
       <c r="I85" t="s">
-        <v>270</v>
+        <v>77</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>271</v>
+        <v>426</v>
       </c>
       <c r="B86" t="s">
         <v>8</v>
@@ -4612,10 +4675,10 @@
         <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>272</v>
+        <v>427</v>
       </c>
       <c r="E86" t="s">
-        <v>12</v>
+        <v>358</v>
       </c>
       <c r="F86" t="s">
         <v>12</v>
@@ -4625,11 +4688,14 @@
       </c>
       <c r="H86" t="s">
         <v>14</v>
+      </c>
+      <c r="I86" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>273</v>
+        <v>428</v>
       </c>
       <c r="B87" t="s">
         <v>8</v>
@@ -4638,10 +4704,10 @@
         <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>274</v>
+        <v>429</v>
       </c>
       <c r="E87" t="s">
-        <v>12</v>
+        <v>411</v>
       </c>
       <c r="F87" t="s">
         <v>12</v>
@@ -4651,11 +4717,14 @@
       </c>
       <c r="H87" t="s">
         <v>14</v>
+      </c>
+      <c r="I87" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>275</v>
+        <v>78</v>
       </c>
       <c r="B88" t="s">
         <v>8</v>
@@ -4664,10 +4733,10 @@
         <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>276</v>
+        <v>79</v>
       </c>
       <c r="E88" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="F88" t="s">
         <v>12</v>
@@ -4677,11 +4746,14 @@
       </c>
       <c r="H88" t="s">
         <v>14</v>
+      </c>
+      <c r="I88" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>277</v>
+        <v>431</v>
       </c>
       <c r="B89" t="s">
         <v>8</v>
@@ -4690,10 +4762,10 @@
         <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>278</v>
+        <v>432</v>
       </c>
       <c r="E89" t="s">
-        <v>12</v>
+        <v>367</v>
       </c>
       <c r="F89" t="s">
         <v>12</v>
@@ -4703,11 +4775,14 @@
       </c>
       <c r="H89" t="s">
         <v>14</v>
+      </c>
+      <c r="I89" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>279</v>
+        <v>81</v>
       </c>
       <c r="B90" t="s">
         <v>8</v>
@@ -4716,10 +4791,10 @@
         <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>280</v>
+        <v>82</v>
       </c>
       <c r="E90" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="F90" t="s">
         <v>12</v>
@@ -4729,11 +4804,14 @@
       </c>
       <c r="H90" t="s">
         <v>14</v>
+      </c>
+      <c r="I90" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>281</v>
+        <v>434</v>
       </c>
       <c r="B91" t="s">
         <v>8</v>
@@ -4742,10 +4820,10 @@
         <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>282</v>
+        <v>435</v>
       </c>
       <c r="E91" t="s">
-        <v>12</v>
+        <v>436</v>
       </c>
       <c r="F91" t="s">
         <v>12</v>
@@ -4759,7 +4837,7 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>283</v>
+        <v>211</v>
       </c>
       <c r="B92" t="s">
         <v>8</v>
@@ -4768,10 +4846,10 @@
         <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>284</v>
+        <v>212</v>
       </c>
       <c r="E92" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="F92" t="s">
         <v>12</v>
@@ -4781,11 +4859,14 @@
       </c>
       <c r="H92" t="s">
         <v>14</v>
+      </c>
+      <c r="I92" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>285</v>
+        <v>437</v>
       </c>
       <c r="B93" t="s">
         <v>8</v>
@@ -4794,10 +4875,10 @@
         <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>286</v>
+        <v>438</v>
       </c>
       <c r="E93" t="s">
-        <v>12</v>
+        <v>439</v>
       </c>
       <c r="F93" t="s">
         <v>12</v>
@@ -4807,11 +4888,14 @@
       </c>
       <c r="H93" t="s">
         <v>14</v>
+      </c>
+      <c r="I93" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>287</v>
+        <v>441</v>
       </c>
       <c r="B94" t="s">
         <v>8</v>
@@ -4820,10 +4904,10 @@
         <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>288</v>
+        <v>442</v>
       </c>
       <c r="E94" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="F94" t="s">
         <v>12</v>
@@ -4833,11 +4917,14 @@
       </c>
       <c r="H94" t="s">
         <v>14</v>
+      </c>
+      <c r="I94" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>289</v>
+        <v>214</v>
       </c>
       <c r="B95" t="s">
         <v>8</v>
@@ -4846,10 +4933,10 @@
         <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>290</v>
+        <v>215</v>
       </c>
       <c r="E95" t="s">
-        <v>287</v>
+        <v>216</v>
       </c>
       <c r="F95" t="s">
         <v>12</v>
@@ -4861,12 +4948,12 @@
         <v>14</v>
       </c>
       <c r="I95" t="s">
-        <v>291</v>
+        <v>217</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>292</v>
+        <v>218</v>
       </c>
       <c r="B96" t="s">
         <v>8</v>
@@ -4875,10 +4962,10 @@
         <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="E96" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="F96" t="s">
         <v>12</v>
@@ -4888,11 +4975,14 @@
       </c>
       <c r="H96" t="s">
         <v>14</v>
+      </c>
+      <c r="I96" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>294</v>
+        <v>221</v>
       </c>
       <c r="B97" t="s">
         <v>8</v>
@@ -4901,7 +4991,7 @@
         <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>295</v>
+        <v>222</v>
       </c>
       <c r="E97" t="s">
         <v>12</v>
@@ -4914,11 +5004,14 @@
       </c>
       <c r="H97" t="s">
         <v>14</v>
+      </c>
+      <c r="I97" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>296</v>
+        <v>444</v>
       </c>
       <c r="B98" t="s">
         <v>8</v>
@@ -4927,10 +5020,10 @@
         <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>297</v>
+        <v>445</v>
       </c>
       <c r="E98" t="s">
-        <v>12</v>
+        <v>221</v>
       </c>
       <c r="F98" t="s">
         <v>12</v>
@@ -4940,40 +5033,43 @@
       </c>
       <c r="H98" t="s">
         <v>14</v>
+      </c>
+      <c r="I98" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>298</v>
+        <v>224</v>
       </c>
       <c r="B99" t="s">
         <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>299</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>300</v>
+        <v>225</v>
       </c>
       <c r="E99" t="s">
-        <v>301</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>302</v>
+        <v>12</v>
       </c>
       <c r="G99" t="s">
         <v>13</v>
       </c>
       <c r="H99" t="s">
-        <v>303</v>
+        <v>14</v>
       </c>
       <c r="I99" t="s">
-        <v>304</v>
+        <v>226</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>305</v>
+        <v>447</v>
       </c>
       <c r="B100" t="s">
         <v>8</v>
@@ -4982,10 +5078,10 @@
         <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>306</v>
+        <v>448</v>
       </c>
       <c r="E100" t="s">
-        <v>307</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
         <v>12</v>
@@ -4997,12 +5093,12 @@
         <v>14</v>
       </c>
       <c r="I100" t="s">
-        <v>308</v>
+        <v>449</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>309</v>
+        <v>227</v>
       </c>
       <c r="B101" t="s">
         <v>8</v>
@@ -5011,10 +5107,10 @@
         <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>310</v>
+        <v>228</v>
       </c>
       <c r="E101" t="s">
-        <v>305</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
         <v>12</v>
@@ -5026,12 +5122,12 @@
         <v>14</v>
       </c>
       <c r="I101" t="s">
-        <v>311</v>
+        <v>229</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>312</v>
+        <v>230</v>
       </c>
       <c r="B102" t="s">
         <v>8</v>
@@ -5040,10 +5136,10 @@
         <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>313</v>
+        <v>231</v>
       </c>
       <c r="E102" t="s">
-        <v>314</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
         <v>12</v>
@@ -5055,12 +5151,12 @@
         <v>14</v>
       </c>
       <c r="I102" t="s">
-        <v>315</v>
+        <v>232</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>316</v>
+        <v>233</v>
       </c>
       <c r="B103" t="s">
         <v>8</v>
@@ -5069,13 +5165,13 @@
         <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>317</v>
+        <v>234</v>
       </c>
       <c r="E103" t="s">
-        <v>318</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>319</v>
+        <v>12</v>
       </c>
       <c r="G103" t="s">
         <v>13</v>
@@ -5084,12 +5180,12 @@
         <v>14</v>
       </c>
       <c r="I103" t="s">
-        <v>320</v>
+        <v>235</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>321</v>
+        <v>238</v>
       </c>
       <c r="B104" t="s">
         <v>8</v>
@@ -5098,10 +5194,10 @@
         <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>322</v>
+        <v>450</v>
       </c>
       <c r="E104" t="s">
-        <v>12</v>
+        <v>233</v>
       </c>
       <c r="F104" t="s">
         <v>12</v>
@@ -5111,11 +5207,14 @@
       </c>
       <c r="H104" t="s">
         <v>14</v>
+      </c>
+      <c r="I104" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>323</v>
+        <v>236</v>
       </c>
       <c r="B105" t="s">
         <v>8</v>
@@ -5124,10 +5223,10 @@
         <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>324</v>
+        <v>237</v>
       </c>
       <c r="E105" t="s">
-        <v>106</v>
+        <v>238</v>
       </c>
       <c r="F105" t="s">
         <v>12</v>
@@ -5139,12 +5238,12 @@
         <v>14</v>
       </c>
       <c r="I105" t="s">
-        <v>325</v>
+        <v>239</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>326</v>
+        <v>452</v>
       </c>
       <c r="B106" t="s">
         <v>8</v>
@@ -5153,7 +5252,7 @@
         <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>327</v>
+        <v>453</v>
       </c>
       <c r="E106" t="s">
         <v>12</v>
@@ -5170,7 +5269,7 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>328</v>
+        <v>240</v>
       </c>
       <c r="B107" t="s">
         <v>8</v>
@@ -5179,10 +5278,10 @@
         <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>329</v>
+        <v>241</v>
       </c>
       <c r="E107" t="s">
-        <v>318</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
         <v>12</v>
@@ -5192,14 +5291,11 @@
       </c>
       <c r="H107" t="s">
         <v>14</v>
-      </c>
-      <c r="I107" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>331</v>
+        <v>242</v>
       </c>
       <c r="B108" t="s">
         <v>8</v>
@@ -5208,10 +5304,10 @@
         <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>332</v>
+        <v>243</v>
       </c>
       <c r="E108" t="s">
-        <v>333</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
         <v>12</v>
@@ -5221,14 +5317,11 @@
       </c>
       <c r="H108" t="s">
         <v>14</v>
-      </c>
-      <c r="I108" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>335</v>
+        <v>454</v>
       </c>
       <c r="B109" t="s">
         <v>8</v>
@@ -5237,10 +5330,10 @@
         <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>336</v>
+        <v>455</v>
       </c>
       <c r="E109" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
         <v>12</v>
@@ -5250,14 +5343,11 @@
       </c>
       <c r="H109" t="s">
         <v>14</v>
-      </c>
-      <c r="I109" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>338</v>
+        <v>244</v>
       </c>
       <c r="B110" t="s">
         <v>8</v>
@@ -5266,10 +5356,10 @@
         <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>339</v>
+        <v>245</v>
       </c>
       <c r="E110" t="s">
-        <v>340</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
         <v>12</v>
@@ -5281,12 +5371,12 @@
         <v>14</v>
       </c>
       <c r="I110" t="s">
-        <v>341</v>
+        <v>246</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>342</v>
+        <v>456</v>
       </c>
       <c r="B111" t="s">
         <v>8</v>
@@ -5295,10 +5385,10 @@
         <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>343</v>
+        <v>457</v>
       </c>
       <c r="E111" t="s">
-        <v>344</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
         <v>12</v>
@@ -5308,14 +5398,11 @@
       </c>
       <c r="H111" t="s">
         <v>14</v>
-      </c>
-      <c r="I111" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>346</v>
+        <v>247</v>
       </c>
       <c r="B112" t="s">
         <v>8</v>
@@ -5324,10 +5411,10 @@
         <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>347</v>
+        <v>248</v>
       </c>
       <c r="E112" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
         <v>12</v>
@@ -5337,14 +5424,11 @@
       </c>
       <c r="H112" t="s">
         <v>14</v>
-      </c>
-      <c r="I112" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>18</v>
+        <v>249</v>
       </c>
       <c r="B113" t="s">
         <v>8</v>
@@ -5353,10 +5437,10 @@
         <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>349</v>
+        <v>250</v>
       </c>
       <c r="E113" t="s">
-        <v>318</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
         <v>12</v>
@@ -5366,14 +5450,11 @@
       </c>
       <c r="H113" t="s">
         <v>14</v>
-      </c>
-      <c r="I113" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>351</v>
+        <v>458</v>
       </c>
       <c r="B114" t="s">
         <v>8</v>
@@ -5382,10 +5463,10 @@
         <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>352</v>
+        <v>459</v>
       </c>
       <c r="E114" t="s">
-        <v>353</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
         <v>12</v>
@@ -5395,14 +5476,11 @@
       </c>
       <c r="H114" t="s">
         <v>14</v>
-      </c>
-      <c r="I114" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>355</v>
+        <v>251</v>
       </c>
       <c r="B115" t="s">
         <v>8</v>
@@ -5411,10 +5489,10 @@
         <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>356</v>
+        <v>252</v>
       </c>
       <c r="E115" t="s">
-        <v>357</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
         <v>12</v>
@@ -5424,14 +5502,11 @@
       </c>
       <c r="H115" t="s">
         <v>14</v>
-      </c>
-      <c r="I115" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>359</v>
+        <v>460</v>
       </c>
       <c r="B116" t="s">
         <v>8</v>
@@ -5440,10 +5515,10 @@
         <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>360</v>
+        <v>461</v>
       </c>
       <c r="E116" t="s">
-        <v>12</v>
+        <v>462</v>
       </c>
       <c r="F116" t="s">
         <v>12</v>
@@ -5455,12 +5530,12 @@
         <v>14</v>
       </c>
       <c r="I116" t="s">
-        <v>361</v>
+        <v>588</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>362</v>
+        <v>253</v>
       </c>
       <c r="B117" t="s">
         <v>8</v>
@@ -5469,10 +5544,10 @@
         <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>363</v>
+        <v>254</v>
       </c>
       <c r="E117" t="s">
-        <v>364</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
         <v>12</v>
@@ -5482,14 +5557,11 @@
       </c>
       <c r="H117" t="s">
         <v>14</v>
-      </c>
-      <c r="I117" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>366</v>
+        <v>463</v>
       </c>
       <c r="B118" t="s">
         <v>8</v>
@@ -5498,10 +5570,10 @@
         <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>367</v>
+        <v>464</v>
       </c>
       <c r="E118" t="s">
-        <v>368</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
         <v>12</v>
@@ -5511,14 +5583,11 @@
       </c>
       <c r="H118" t="s">
         <v>14</v>
-      </c>
-      <c r="I118" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>370</v>
+        <v>255</v>
       </c>
       <c r="B119" t="s">
         <v>8</v>
@@ -5527,10 +5596,10 @@
         <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>371</v>
+        <v>256</v>
       </c>
       <c r="E119" t="s">
-        <v>372</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
         <v>12</v>
@@ -5540,14 +5609,11 @@
       </c>
       <c r="H119" t="s">
         <v>14</v>
-      </c>
-      <c r="I119" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>374</v>
+        <v>465</v>
       </c>
       <c r="B120" t="s">
         <v>8</v>
@@ -5556,10 +5622,10 @@
         <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>375</v>
+        <v>466</v>
       </c>
       <c r="E120" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
         <v>12</v>
@@ -5569,14 +5635,11 @@
       </c>
       <c r="H120" t="s">
         <v>14</v>
-      </c>
-      <c r="I120" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>377</v>
+        <v>467</v>
       </c>
       <c r="B121" t="s">
         <v>8</v>
@@ -5585,10 +5648,10 @@
         <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>378</v>
+        <v>468</v>
       </c>
       <c r="E121" t="s">
-        <v>379</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
         <v>12</v>
@@ -5598,14 +5661,11 @@
       </c>
       <c r="H121" t="s">
         <v>14</v>
-      </c>
-      <c r="I121" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>381</v>
+        <v>259</v>
       </c>
       <c r="B122" t="s">
         <v>8</v>
@@ -5614,10 +5674,10 @@
         <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>382</v>
+        <v>469</v>
       </c>
       <c r="E122" t="s">
-        <v>383</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
         <v>12</v>
@@ -5627,14 +5687,11 @@
       </c>
       <c r="H122" t="s">
         <v>14</v>
-      </c>
-      <c r="I122" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>385</v>
+        <v>257</v>
       </c>
       <c r="B123" t="s">
         <v>8</v>
@@ -5643,10 +5700,10 @@
         <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>386</v>
+        <v>258</v>
       </c>
       <c r="E123" t="s">
-        <v>18</v>
+        <v>259</v>
       </c>
       <c r="F123" t="s">
         <v>12</v>
@@ -5658,12 +5715,12 @@
         <v>14</v>
       </c>
       <c r="I123" t="s">
-        <v>387</v>
+        <v>589</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>388</v>
+        <v>260</v>
       </c>
       <c r="B124" t="s">
         <v>8</v>
@@ -5672,10 +5729,10 @@
         <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>389</v>
+        <v>261</v>
       </c>
       <c r="E124" t="s">
-        <v>390</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
         <v>12</v>
@@ -5685,14 +5742,11 @@
       </c>
       <c r="H124" t="s">
         <v>14</v>
-      </c>
-      <c r="I124" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>392</v>
+        <v>262</v>
       </c>
       <c r="B125" t="s">
         <v>8</v>
@@ -5701,10 +5755,10 @@
         <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>393</v>
+        <v>263</v>
       </c>
       <c r="E125" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
         <v>12</v>
@@ -5714,14 +5768,11 @@
       </c>
       <c r="H125" t="s">
         <v>14</v>
-      </c>
-      <c r="I125" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>395</v>
+        <v>470</v>
       </c>
       <c r="B126" t="s">
         <v>8</v>
@@ -5730,10 +5781,10 @@
         <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>396</v>
+        <v>471</v>
       </c>
       <c r="E126" t="s">
-        <v>397</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
         <v>12</v>
@@ -5743,14 +5794,11 @@
       </c>
       <c r="H126" t="s">
         <v>14</v>
-      </c>
-      <c r="I126" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>224</v>
+        <v>472</v>
       </c>
       <c r="B127" t="s">
         <v>8</v>
@@ -5759,10 +5807,10 @@
         <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>399</v>
+        <v>473</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
         <v>12</v>
@@ -5772,14 +5820,11 @@
       </c>
       <c r="H127" t="s">
         <v>14</v>
-      </c>
-      <c r="I127" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>400</v>
+        <v>474</v>
       </c>
       <c r="B128" t="s">
         <v>8</v>
@@ -5788,10 +5833,10 @@
         <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>401</v>
+        <v>475</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
         <v>12</v>
@@ -5805,7 +5850,7 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>402</v>
+        <v>476</v>
       </c>
       <c r="B129" t="s">
         <v>8</v>
@@ -5814,10 +5859,10 @@
         <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>403</v>
+        <v>477</v>
       </c>
       <c r="E129" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
         <v>12</v>
@@ -5827,14 +5872,11 @@
       </c>
       <c r="H129" t="s">
         <v>14</v>
-      </c>
-      <c r="I129" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>405</v>
+        <v>478</v>
       </c>
       <c r="B130" t="s">
         <v>8</v>
@@ -5843,10 +5885,10 @@
         <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>406</v>
+        <v>479</v>
       </c>
       <c r="E130" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
         <v>12</v>
@@ -5856,14 +5898,11 @@
       </c>
       <c r="H130" t="s">
         <v>14</v>
-      </c>
-      <c r="I130" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>408</v>
+        <v>480</v>
       </c>
       <c r="B131" t="s">
         <v>8</v>
@@ -5872,10 +5911,10 @@
         <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>409</v>
+        <v>481</v>
       </c>
       <c r="E131" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
         <v>12</v>
@@ -5885,14 +5924,11 @@
       </c>
       <c r="H131" t="s">
         <v>14</v>
-      </c>
-      <c r="I131" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>411</v>
+        <v>264</v>
       </c>
       <c r="B132" t="s">
         <v>8</v>
@@ -5901,10 +5937,10 @@
         <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>412</v>
+        <v>265</v>
       </c>
       <c r="E132" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
         <v>12</v>
@@ -5914,14 +5950,11 @@
       </c>
       <c r="H132" t="s">
         <v>14</v>
-      </c>
-      <c r="I132" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>414</v>
+        <v>482</v>
       </c>
       <c r="B133" t="s">
         <v>8</v>
@@ -5930,10 +5963,10 @@
         <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>415</v>
+        <v>483</v>
       </c>
       <c r="E133" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
         <v>12</v>
@@ -5943,14 +5976,11 @@
       </c>
       <c r="H133" t="s">
         <v>14</v>
-      </c>
-      <c r="I133" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>417</v>
+        <v>266</v>
       </c>
       <c r="B134" t="s">
         <v>8</v>
@@ -5959,7 +5989,7 @@
         <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>418</v>
+        <v>267</v>
       </c>
       <c r="E134" t="s">
         <v>12</v>
@@ -5976,7 +6006,7 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>419</v>
+        <v>484</v>
       </c>
       <c r="B135" t="s">
         <v>8</v>
@@ -5985,10 +6015,10 @@
         <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>420</v>
+        <v>485</v>
       </c>
       <c r="E135" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
         <v>12</v>
@@ -5998,14 +6028,11 @@
       </c>
       <c r="H135" t="s">
         <v>14</v>
-      </c>
-      <c r="I135" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="B136" t="s">
         <v>8</v>
@@ -6014,10 +6041,10 @@
         <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>423</v>
+        <v>487</v>
       </c>
       <c r="E136" t="s">
-        <v>424</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
         <v>12</v>
@@ -6027,14 +6054,11 @@
       </c>
       <c r="H136" t="s">
         <v>14</v>
-      </c>
-      <c r="I136" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>426</v>
+        <v>268</v>
       </c>
       <c r="B137" t="s">
         <v>8</v>
@@ -6043,10 +6067,10 @@
         <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>427</v>
+        <v>269</v>
       </c>
       <c r="E137" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
         <v>12</v>
@@ -6056,14 +6080,11 @@
       </c>
       <c r="H137" t="s">
         <v>14</v>
-      </c>
-      <c r="I137" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>58</v>
+        <v>270</v>
       </c>
       <c r="B138" t="s">
         <v>8</v>
@@ -6072,10 +6093,10 @@
         <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>429</v>
+        <v>271</v>
       </c>
       <c r="E138" t="s">
-        <v>426</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
         <v>12</v>
@@ -6085,14 +6106,11 @@
       </c>
       <c r="H138" t="s">
         <v>14</v>
-      </c>
-      <c r="I138" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>431</v>
+        <v>590</v>
       </c>
       <c r="B139" t="s">
         <v>8</v>
@@ -6101,10 +6119,10 @@
         <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>432</v>
+        <v>591</v>
       </c>
       <c r="E139" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
         <v>12</v>
@@ -6114,14 +6132,11 @@
       </c>
       <c r="H139" t="s">
         <v>14</v>
-      </c>
-      <c r="I139" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>434</v>
+        <v>488</v>
       </c>
       <c r="B140" t="s">
         <v>8</v>
@@ -6130,10 +6145,10 @@
         <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>435</v>
+        <v>489</v>
       </c>
       <c r="E140" t="s">
-        <v>436</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
         <v>12</v>
@@ -6143,14 +6158,11 @@
       </c>
       <c r="H140" t="s">
         <v>14</v>
-      </c>
-      <c r="I140" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>438</v>
+        <v>272</v>
       </c>
       <c r="B141" t="s">
         <v>8</v>
@@ -6159,10 +6171,10 @@
         <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>439</v>
+        <v>273</v>
       </c>
       <c r="E141" t="s">
-        <v>359</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
         <v>12</v>
@@ -6172,14 +6184,11 @@
       </c>
       <c r="H141" t="s">
         <v>14</v>
-      </c>
-      <c r="I141" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>441</v>
+        <v>274</v>
       </c>
       <c r="B142" t="s">
         <v>8</v>
@@ -6188,10 +6197,10 @@
         <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>442</v>
+        <v>275</v>
       </c>
       <c r="E142" t="s">
-        <v>7</v>
+        <v>272</v>
       </c>
       <c r="F142" t="s">
         <v>12</v>
@@ -6203,12 +6212,12 @@
         <v>14</v>
       </c>
       <c r="I142" t="s">
-        <v>443</v>
+        <v>276</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>444</v>
+        <v>277</v>
       </c>
       <c r="B143" t="s">
         <v>8</v>
@@ -6217,10 +6226,10 @@
         <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>445</v>
+        <v>278</v>
       </c>
       <c r="E143" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
         <v>12</v>
@@ -6230,14 +6239,11 @@
       </c>
       <c r="H143" t="s">
         <v>14</v>
-      </c>
-      <c r="I143" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>446</v>
+        <v>490</v>
       </c>
       <c r="B144" t="s">
         <v>8</v>
@@ -6246,10 +6252,10 @@
         <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>447</v>
+        <v>491</v>
       </c>
       <c r="E144" t="s">
-        <v>377</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
         <v>12</v>
@@ -6259,14 +6265,11 @@
       </c>
       <c r="H144" t="s">
         <v>14</v>
-      </c>
-      <c r="I144" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>449</v>
+        <v>141</v>
       </c>
       <c r="B145" t="s">
         <v>8</v>
@@ -6275,10 +6278,10 @@
         <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>450</v>
+        <v>142</v>
       </c>
       <c r="E145" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
         <v>12</v>
@@ -6288,14 +6291,11 @@
       </c>
       <c r="H145" t="s">
         <v>14</v>
-      </c>
-      <c r="I145" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>452</v>
+        <v>143</v>
       </c>
       <c r="B146" t="s">
         <v>8</v>
@@ -6304,10 +6304,10 @@
         <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>453</v>
+        <v>144</v>
       </c>
       <c r="E146" t="s">
-        <v>377</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
         <v>12</v>
@@ -6317,14 +6317,11 @@
       </c>
       <c r="H146" t="s">
         <v>14</v>
-      </c>
-      <c r="I146" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>454</v>
+        <v>592</v>
       </c>
       <c r="B147" t="s">
         <v>8</v>
@@ -6333,10 +6330,10 @@
         <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>455</v>
+        <v>593</v>
       </c>
       <c r="E147" t="s">
-        <v>436</v>
+        <v>257</v>
       </c>
       <c r="F147" t="s">
         <v>12</v>
@@ -6348,12 +6345,12 @@
         <v>14</v>
       </c>
       <c r="I147" t="s">
-        <v>456</v>
+        <v>594</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>457</v>
+        <v>595</v>
       </c>
       <c r="B148" t="s">
         <v>8</v>
@@ -6362,10 +6359,10 @@
         <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>458</v>
+        <v>596</v>
       </c>
       <c r="E148" t="s">
-        <v>388</v>
+        <v>472</v>
       </c>
       <c r="F148" t="s">
         <v>12</v>
@@ -6377,12 +6374,12 @@
         <v>14</v>
       </c>
       <c r="I148" t="s">
-        <v>459</v>
+        <v>597</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>460</v>
+        <v>598</v>
       </c>
       <c r="B149" t="s">
         <v>8</v>
@@ -6391,10 +6388,10 @@
         <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>461</v>
+        <v>599</v>
       </c>
       <c r="E149" t="s">
-        <v>462</v>
+        <v>598</v>
       </c>
       <c r="F149" t="s">
         <v>12</v>
@@ -6404,11 +6401,14 @@
       </c>
       <c r="H149" t="s">
         <v>14</v>
+      </c>
+      <c r="I149" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>463</v>
+        <v>145</v>
       </c>
       <c r="B150" t="s">
         <v>8</v>
@@ -6417,10 +6417,10 @@
         <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>464</v>
+        <v>146</v>
       </c>
       <c r="E150" t="s">
-        <v>465</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
         <v>12</v>
@@ -6430,14 +6430,11 @@
       </c>
       <c r="H150" t="s">
         <v>14</v>
-      </c>
-      <c r="I150" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>467</v>
+        <v>492</v>
       </c>
       <c r="B151" t="s">
         <v>8</v>
@@ -6446,10 +6443,10 @@
         <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>468</v>
+        <v>493</v>
       </c>
       <c r="E151" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
         <v>12</v>
@@ -6459,14 +6456,11 @@
       </c>
       <c r="H151" t="s">
         <v>14</v>
-      </c>
-      <c r="I151" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>470</v>
+        <v>494</v>
       </c>
       <c r="B152" t="s">
         <v>8</v>
@@ -6475,10 +6469,10 @@
         <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>471</v>
+        <v>495</v>
       </c>
       <c r="E152" t="s">
-        <v>229</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
         <v>12</v>
@@ -6488,14 +6482,11 @@
       </c>
       <c r="H152" t="s">
         <v>14</v>
-      </c>
-      <c r="I152" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>473</v>
+        <v>147</v>
       </c>
       <c r="B153" t="s">
         <v>8</v>
@@ -6504,7 +6495,7 @@
         <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>474</v>
+        <v>148</v>
       </c>
       <c r="E153" t="s">
         <v>12</v>
@@ -6517,14 +6508,11 @@
       </c>
       <c r="H153" t="s">
         <v>14</v>
-      </c>
-      <c r="I153" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>246</v>
+        <v>149</v>
       </c>
       <c r="B154" t="s">
         <v>8</v>
@@ -6533,10 +6521,10 @@
         <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>476</v>
+        <v>150</v>
       </c>
       <c r="E154" t="s">
-        <v>241</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
         <v>12</v>
@@ -6546,14 +6534,11 @@
       </c>
       <c r="H154" t="s">
         <v>14</v>
-      </c>
-      <c r="I154" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>478</v>
+        <v>496</v>
       </c>
       <c r="B155" t="s">
         <v>8</v>
@@ -6562,7 +6547,7 @@
         <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>479</v>
+        <v>497</v>
       </c>
       <c r="E155" t="s">
         <v>12</v>
@@ -6579,7 +6564,7 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>480</v>
+        <v>498</v>
       </c>
       <c r="B156" t="s">
         <v>8</v>
@@ -6588,7 +6573,7 @@
         <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>481</v>
+        <v>499</v>
       </c>
       <c r="E156" t="s">
         <v>12</v>
@@ -6605,7 +6590,7 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>482</v>
+        <v>500</v>
       </c>
       <c r="B157" t="s">
         <v>8</v>
@@ -6614,7 +6599,7 @@
         <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>483</v>
+        <v>501</v>
       </c>
       <c r="E157" t="s">
         <v>12</v>
@@ -6631,7 +6616,7 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>484</v>
+        <v>151</v>
       </c>
       <c r="B158" t="s">
         <v>8</v>
@@ -6640,7 +6625,7 @@
         <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>485</v>
+        <v>152</v>
       </c>
       <c r="E158" t="s">
         <v>12</v>
@@ -6657,7 +6642,7 @@
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>486</v>
+        <v>153</v>
       </c>
       <c r="B159" t="s">
         <v>8</v>
@@ -6666,10 +6651,10 @@
         <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>487</v>
+        <v>154</v>
       </c>
       <c r="E159" t="s">
-        <v>488</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
         <v>12</v>
@@ -6679,14 +6664,11 @@
       </c>
       <c r="H159" t="s">
         <v>14</v>
-      </c>
-      <c r="I159" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>490</v>
+        <v>155</v>
       </c>
       <c r="B160" t="s">
         <v>8</v>
@@ -6695,7 +6677,7 @@
         <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>491</v>
+        <v>156</v>
       </c>
       <c r="E160" t="s">
         <v>12</v>
@@ -6710,9 +6692,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="B161" t="s">
         <v>8</v>
@@ -6721,7 +6703,7 @@
         <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="E161" t="s">
         <v>12</v>
@@ -6736,9 +6718,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>494</v>
+        <v>157</v>
       </c>
       <c r="B162" t="s">
         <v>8</v>
@@ -6747,7 +6729,7 @@
         <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>495</v>
+        <v>158</v>
       </c>
       <c r="E162" t="s">
         <v>12</v>
@@ -6762,9 +6744,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>269</v>
+        <v>504</v>
       </c>
       <c r="B163" t="s">
         <v>8</v>
@@ -6773,7 +6755,7 @@
         <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="E163" t="s">
         <v>12</v>
@@ -6788,9 +6770,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="B164" t="s">
         <v>8</v>
@@ -6799,7 +6781,7 @@
         <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="E164" t="s">
         <v>12</v>
@@ -6814,9 +6796,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>499</v>
+        <v>159</v>
       </c>
       <c r="B165" t="s">
         <v>8</v>
@@ -6825,7 +6807,7 @@
         <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="E165" t="s">
         <v>12</v>
@@ -6840,9 +6822,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>501</v>
+        <v>161</v>
       </c>
       <c r="B166" t="s">
         <v>8</v>
@@ -6851,7 +6833,7 @@
         <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>502</v>
+        <v>162</v>
       </c>
       <c r="E166" t="s">
         <v>12</v>
@@ -6866,9 +6848,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="B167" t="s">
         <v>8</v>
@@ -6877,7 +6859,7 @@
         <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="E167" t="s">
         <v>12</v>
@@ -6892,9 +6874,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>505</v>
+        <v>163</v>
       </c>
       <c r="B168" t="s">
         <v>8</v>
@@ -6903,7 +6885,7 @@
         <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>506</v>
+        <v>164</v>
       </c>
       <c r="E168" t="s">
         <v>12</v>
@@ -6918,9 +6900,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>507</v>
+        <v>165</v>
       </c>
       <c r="B169" t="s">
         <v>8</v>
@@ -6929,7 +6911,7 @@
         <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>508</v>
+        <v>166</v>
       </c>
       <c r="E169" t="s">
         <v>12</v>
@@ -6944,9 +6926,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>509</v>
+        <v>167</v>
       </c>
       <c r="B170" t="s">
         <v>8</v>
@@ -6955,192 +6937,201 @@
         <v>9</v>
       </c>
       <c r="D170" t="s">
+        <v>168</v>
+      </c>
+      <c r="E170" t="s">
+        <v>12</v>
+      </c>
+      <c r="F170" t="s">
+        <v>12</v>
+      </c>
+      <c r="G170" t="s">
+        <v>13</v>
+      </c>
+      <c r="H170" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>169</v>
+      </c>
+      <c r="B171" t="s">
+        <v>8</v>
+      </c>
+      <c r="C171" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171" t="s">
+        <v>170</v>
+      </c>
+      <c r="E171" t="s">
+        <v>12</v>
+      </c>
+      <c r="F171" t="s">
+        <v>12</v>
+      </c>
+      <c r="G171" t="s">
+        <v>13</v>
+      </c>
+      <c r="H171" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>8</v>
+      </c>
+      <c r="C172" t="s">
+        <v>9</v>
+      </c>
+      <c r="D172" t="s">
+        <v>172</v>
+      </c>
+      <c r="E172" t="s">
+        <v>12</v>
+      </c>
+      <c r="F172" t="s">
+        <v>12</v>
+      </c>
+      <c r="G172" t="s">
+        <v>13</v>
+      </c>
+      <c r="H172" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>183</v>
+      </c>
+      <c r="B173" t="s">
+        <v>8</v>
+      </c>
+      <c r="C173" t="s">
+        <v>9</v>
+      </c>
+      <c r="D173" t="s">
+        <v>184</v>
+      </c>
+      <c r="E173" t="s">
+        <v>98</v>
+      </c>
+      <c r="F173" t="s">
+        <v>12</v>
+      </c>
+      <c r="G173" t="s">
+        <v>13</v>
+      </c>
+      <c r="H173" t="s">
+        <v>14</v>
+      </c>
+      <c r="I173" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>93</v>
+      </c>
+      <c r="B174" t="s">
+        <v>8</v>
+      </c>
+      <c r="C174" t="s">
+        <v>208</v>
+      </c>
+      <c r="D174" t="s">
+        <v>209</v>
+      </c>
+      <c r="E174" t="s">
+        <v>12</v>
+      </c>
+      <c r="F174" t="s">
+        <v>12</v>
+      </c>
+      <c r="G174" t="s">
+        <v>208</v>
+      </c>
+      <c r="H174" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>180</v>
+      </c>
+      <c r="B175" t="s">
+        <v>8</v>
+      </c>
+      <c r="C175" t="s">
+        <v>178</v>
+      </c>
+      <c r="D175" t="s">
         <v>510</v>
       </c>
-      <c r="E170" t="s">
-        <v>12</v>
-      </c>
-      <c r="F170" t="s">
-        <v>12</v>
-      </c>
-      <c r="G170" t="s">
-        <v>13</v>
-      </c>
-      <c r="H170" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A171" t="s">
+      <c r="E175" t="s">
         <v>511</v>
       </c>
-      <c r="B171" t="s">
-        <v>8</v>
-      </c>
-      <c r="C171" t="s">
-        <v>9</v>
-      </c>
-      <c r="D171" t="s">
+      <c r="F175" t="s">
+        <v>12</v>
+      </c>
+      <c r="G175" t="s">
+        <v>13</v>
+      </c>
+      <c r="H175" t="s">
+        <v>181</v>
+      </c>
+      <c r="I175" t="s">
         <v>512</v>
       </c>
-      <c r="E171" t="s">
-        <v>12</v>
-      </c>
-      <c r="F171" t="s">
-        <v>12</v>
-      </c>
-      <c r="G171" t="s">
-        <v>13</v>
-      </c>
-      <c r="H171" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A172" t="s">
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
         <v>513</v>
       </c>
-      <c r="B172" t="s">
-        <v>8</v>
-      </c>
-      <c r="C172" t="s">
-        <v>9</v>
-      </c>
-      <c r="D172" t="s">
+      <c r="B176" t="s">
+        <v>8</v>
+      </c>
+      <c r="C176" t="s">
+        <v>178</v>
+      </c>
+      <c r="D176" t="s">
         <v>514</v>
       </c>
-      <c r="E172" t="s">
-        <v>12</v>
-      </c>
-      <c r="F172" t="s">
-        <v>12</v>
-      </c>
-      <c r="G172" t="s">
-        <v>13</v>
-      </c>
-      <c r="H172" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A173" t="s">
+      <c r="E176" t="s">
+        <v>602</v>
+      </c>
+      <c r="F176" t="s">
         <v>515</v>
       </c>
-      <c r="B173" t="s">
-        <v>8</v>
-      </c>
-      <c r="C173" t="s">
-        <v>9</v>
-      </c>
-      <c r="D173" t="s">
+      <c r="G176" t="s">
+        <v>13</v>
+      </c>
+      <c r="H176" t="s">
+        <v>181</v>
+      </c>
+      <c r="I176" t="s">
         <v>516</v>
-      </c>
-      <c r="E173" t="s">
-        <v>12</v>
-      </c>
-      <c r="F173" t="s">
-        <v>12</v>
-      </c>
-      <c r="G173" t="s">
-        <v>13</v>
-      </c>
-      <c r="H173" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A174" t="s">
-        <v>517</v>
-      </c>
-      <c r="B174" t="s">
-        <v>8</v>
-      </c>
-      <c r="C174" t="s">
-        <v>9</v>
-      </c>
-      <c r="D174" t="s">
-        <v>518</v>
-      </c>
-      <c r="E174" t="s">
-        <v>12</v>
-      </c>
-      <c r="F174" t="s">
-        <v>12</v>
-      </c>
-      <c r="G174" t="s">
-        <v>13</v>
-      </c>
-      <c r="H174" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A175" t="s">
-        <v>519</v>
-      </c>
-      <c r="B175" t="s">
-        <v>8</v>
-      </c>
-      <c r="C175" t="s">
-        <v>9</v>
-      </c>
-      <c r="D175" t="s">
-        <v>520</v>
-      </c>
-      <c r="E175" t="s">
-        <v>12</v>
-      </c>
-      <c r="F175" t="s">
-        <v>12</v>
-      </c>
-      <c r="G175" t="s">
-        <v>13</v>
-      </c>
-      <c r="H175" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A176" t="s">
-        <v>521</v>
-      </c>
-      <c r="B176" t="s">
-        <v>8</v>
-      </c>
-      <c r="C176" t="s">
-        <v>9</v>
-      </c>
-      <c r="D176" t="s">
-        <v>522</v>
-      </c>
-      <c r="E176" t="s">
-        <v>12</v>
-      </c>
-      <c r="F176" t="s">
-        <v>12</v>
-      </c>
-      <c r="G176" t="s">
-        <v>13</v>
-      </c>
-      <c r="H176" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>523</v>
+        <v>177</v>
       </c>
       <c r="B177" t="s">
         <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>178</v>
       </c>
       <c r="D177" t="s">
-        <v>524</v>
+        <v>179</v>
       </c>
       <c r="E177" t="s">
-        <v>12</v>
+        <v>180</v>
       </c>
       <c r="F177" t="s">
         <v>12</v>
@@ -7149,21 +7140,24 @@
         <v>13</v>
       </c>
       <c r="H177" t="s">
-        <v>14</v>
+        <v>181</v>
+      </c>
+      <c r="I177" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>525</v>
+        <v>299</v>
       </c>
       <c r="B178" t="s">
         <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>9</v>
+        <v>196</v>
       </c>
       <c r="D178" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="E178" t="s">
         <v>12</v>
@@ -7172,24 +7166,24 @@
         <v>12</v>
       </c>
       <c r="G178" t="s">
-        <v>13</v>
+        <v>199</v>
       </c>
       <c r="H178" t="s">
-        <v>14</v>
+        <v>200</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>527</v>
+        <v>299</v>
       </c>
       <c r="B179" t="s">
         <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>9</v>
+        <v>196</v>
       </c>
       <c r="D179" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="E179" t="s">
         <v>12</v>
@@ -7198,766 +7192,674 @@
         <v>12</v>
       </c>
       <c r="G179" t="s">
-        <v>13</v>
+        <v>199</v>
       </c>
       <c r="H179" t="s">
-        <v>14</v>
+        <v>200</v>
+      </c>
+      <c r="I179" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="B180" t="s">
         <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>9</v>
+        <v>196</v>
       </c>
       <c r="D180" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="E180" t="s">
-        <v>12</v>
+        <v>523</v>
       </c>
       <c r="F180" t="s">
         <v>12</v>
       </c>
       <c r="G180" t="s">
-        <v>13</v>
+        <v>199</v>
       </c>
       <c r="H180" t="s">
-        <v>14</v>
+        <v>200</v>
+      </c>
+      <c r="I180" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="B181" t="s">
         <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>9</v>
+        <v>196</v>
       </c>
       <c r="D181" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="E181" t="s">
-        <v>12</v>
+        <v>538</v>
       </c>
       <c r="F181" t="s">
         <v>12</v>
       </c>
       <c r="G181" t="s">
-        <v>13</v>
+        <v>199</v>
       </c>
       <c r="H181" t="s">
-        <v>14</v>
+        <v>200</v>
+      </c>
+      <c r="I181" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="B182" t="s">
         <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>9</v>
+        <v>196</v>
       </c>
       <c r="D182" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="E182" t="s">
-        <v>12</v>
+        <v>603</v>
       </c>
       <c r="F182" t="s">
         <v>12</v>
       </c>
       <c r="G182" t="s">
-        <v>13</v>
+        <v>199</v>
       </c>
       <c r="H182" t="s">
-        <v>14</v>
+        <v>200</v>
+      </c>
+      <c r="I182" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="B183" t="s">
         <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>9</v>
+        <v>196</v>
       </c>
       <c r="D183" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="E183" t="s">
-        <v>12</v>
+        <v>198</v>
       </c>
       <c r="F183" t="s">
         <v>12</v>
       </c>
       <c r="G183" t="s">
-        <v>13</v>
+        <v>199</v>
       </c>
       <c r="H183" t="s">
-        <v>14</v>
+        <v>200</v>
+      </c>
+      <c r="I183" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>537</v>
+        <v>195</v>
       </c>
       <c r="B184" t="s">
         <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>9</v>
+        <v>196</v>
       </c>
       <c r="D184" t="s">
-        <v>538</v>
+        <v>197</v>
       </c>
       <c r="E184" t="s">
-        <v>12</v>
+        <v>198</v>
       </c>
       <c r="F184" t="s">
         <v>12</v>
       </c>
       <c r="G184" t="s">
-        <v>13</v>
+        <v>199</v>
       </c>
       <c r="H184" t="s">
-        <v>14</v>
+        <v>200</v>
+      </c>
+      <c r="I184" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>539</v>
+        <v>201</v>
       </c>
       <c r="B185" t="s">
         <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>9</v>
+        <v>196</v>
       </c>
       <c r="D185" t="s">
-        <v>540</v>
+        <v>202</v>
       </c>
       <c r="E185" t="s">
-        <v>12</v>
+        <v>548</v>
       </c>
       <c r="F185" t="s">
         <v>12</v>
       </c>
       <c r="G185" t="s">
-        <v>13</v>
+        <v>199</v>
       </c>
       <c r="H185" t="s">
-        <v>14</v>
+        <v>200</v>
+      </c>
+      <c r="I185" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>185</v>
+        <v>544</v>
       </c>
       <c r="B186" t="s">
         <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="D186" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="E186" t="s">
-        <v>542</v>
+        <v>607</v>
       </c>
       <c r="F186" t="s">
         <v>12</v>
       </c>
       <c r="G186" t="s">
-        <v>13</v>
+        <v>199</v>
       </c>
       <c r="H186" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="I186" t="s">
-        <v>543</v>
+        <v>608</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B187" t="s">
         <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="D187" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="E187" t="s">
-        <v>301</v>
+        <v>548</v>
       </c>
       <c r="F187" t="s">
-        <v>546</v>
+        <v>12</v>
       </c>
       <c r="G187" t="s">
-        <v>13</v>
+        <v>199</v>
       </c>
       <c r="H187" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="I187" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B188" t="s">
         <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="D188" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="E188" t="s">
-        <v>12</v>
+        <v>607</v>
       </c>
       <c r="F188" t="s">
         <v>12</v>
       </c>
       <c r="G188" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="H188" t="s">
-        <v>177</v>
+        <v>200</v>
+      </c>
+      <c r="I188" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>318</v>
+        <v>552</v>
       </c>
       <c r="B189" t="s">
         <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D189" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="E189" t="s">
-        <v>12</v>
+        <v>548</v>
       </c>
       <c r="F189" t="s">
         <v>12</v>
       </c>
       <c r="G189" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="H189" t="s">
-        <v>206</v>
+        <v>200</v>
+      </c>
+      <c r="I189" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>318</v>
+        <v>555</v>
       </c>
       <c r="B190" t="s">
         <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D190" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="E190" t="s">
-        <v>12</v>
+        <v>206</v>
       </c>
       <c r="F190" t="s">
         <v>12</v>
       </c>
       <c r="G190" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="H190" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="I190" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>552</v>
+        <v>204</v>
       </c>
       <c r="B191" t="s">
         <v>8</v>
       </c>
       <c r="C191" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D191" t="s">
-        <v>553</v>
+        <v>205</v>
       </c>
       <c r="E191" t="s">
-        <v>554</v>
+        <v>206</v>
       </c>
       <c r="F191" t="s">
         <v>12</v>
       </c>
       <c r="G191" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="H191" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="I191" t="s">
-        <v>555</v>
+        <v>207</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>556</v>
+        <v>185</v>
       </c>
       <c r="B192" t="s">
         <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>557</v>
+        <v>186</v>
       </c>
       <c r="D192" t="s">
-        <v>558</v>
+        <v>187</v>
       </c>
       <c r="E192" t="s">
-        <v>318</v>
+        <v>188</v>
       </c>
       <c r="F192" t="s">
         <v>12</v>
       </c>
       <c r="G192" t="s">
-        <v>205</v>
+        <v>13</v>
       </c>
       <c r="H192" t="s">
-        <v>559</v>
+        <v>189</v>
       </c>
       <c r="I192" t="s">
-        <v>560</v>
+        <v>190</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
+        <v>558</v>
+      </c>
+      <c r="B193" t="s">
+        <v>8</v>
+      </c>
+      <c r="C193" t="s">
+        <v>559</v>
+      </c>
+      <c r="D193" t="s">
+        <v>560</v>
+      </c>
+      <c r="E193" t="s">
         <v>561</v>
       </c>
-      <c r="B193" t="s">
-        <v>8</v>
-      </c>
-      <c r="C193" t="s">
+      <c r="F193" t="s">
+        <v>12</v>
+      </c>
+      <c r="G193" t="s">
+        <v>199</v>
+      </c>
+      <c r="H193" t="s">
         <v>562</v>
       </c>
-      <c r="D193" t="s">
+      <c r="I193" t="s">
         <v>563</v>
-      </c>
-      <c r="E193" t="s">
-        <v>318</v>
-      </c>
-      <c r="F193" t="s">
-        <v>564</v>
-      </c>
-      <c r="G193" t="s">
-        <v>562</v>
-      </c>
-      <c r="H193" t="s">
-        <v>565</v>
-      </c>
-      <c r="I193" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>567</v>
+        <v>279</v>
       </c>
       <c r="B194" t="s">
         <v>8</v>
       </c>
       <c r="C194" t="s">
-        <v>202</v>
+        <v>280</v>
       </c>
       <c r="D194" t="s">
-        <v>568</v>
+        <v>281</v>
       </c>
       <c r="E194" t="s">
-        <v>569</v>
+        <v>282</v>
       </c>
       <c r="F194" t="s">
-        <v>12</v>
+        <v>283</v>
       </c>
       <c r="G194" t="s">
-        <v>205</v>
+        <v>13</v>
       </c>
       <c r="H194" t="s">
-        <v>206</v>
+        <v>284</v>
       </c>
       <c r="I194" t="s">
-        <v>570</v>
+        <v>285</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>571</v>
+        <v>525</v>
       </c>
       <c r="B195" t="s">
         <v>8</v>
       </c>
       <c r="C195" t="s">
-        <v>202</v>
+        <v>526</v>
       </c>
       <c r="D195" t="s">
-        <v>572</v>
+        <v>527</v>
       </c>
       <c r="E195" t="s">
-        <v>573</v>
+        <v>299</v>
       </c>
       <c r="F195" t="s">
         <v>12</v>
       </c>
       <c r="G195" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="H195" t="s">
-        <v>206</v>
+        <v>528</v>
       </c>
       <c r="I195" t="s">
-        <v>574</v>
+        <v>529</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="B196" t="s">
         <v>8</v>
       </c>
       <c r="C196" t="s">
-        <v>202</v>
+        <v>526</v>
       </c>
       <c r="D196" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="E196" t="s">
-        <v>204</v>
+        <v>299</v>
       </c>
       <c r="F196" t="s">
         <v>12</v>
       </c>
       <c r="G196" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="H196" t="s">
-        <v>206</v>
+        <v>528</v>
       </c>
       <c r="I196" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="B197" t="s">
         <v>8</v>
       </c>
       <c r="C197" t="s">
-        <v>202</v>
+        <v>526</v>
       </c>
       <c r="D197" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="E197" t="s">
-        <v>204</v>
+        <v>299</v>
       </c>
       <c r="F197" t="s">
         <v>12</v>
       </c>
       <c r="G197" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="H197" t="s">
-        <v>206</v>
+        <v>528</v>
       </c>
       <c r="I197" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="B198" t="s">
         <v>8</v>
       </c>
       <c r="C198" t="s">
-        <v>202</v>
+        <v>526</v>
       </c>
       <c r="D198" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="E198" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="F198" t="s">
         <v>12</v>
       </c>
       <c r="G198" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="H198" t="s">
-        <v>206</v>
+        <v>528</v>
       </c>
       <c r="I198" t="s">
-        <v>584</v>
+        <v>610</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="B199" t="s">
         <v>8</v>
       </c>
       <c r="C199" t="s">
-        <v>202</v>
+        <v>526</v>
       </c>
       <c r="D199" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="E199" t="s">
-        <v>204</v>
+        <v>108</v>
       </c>
       <c r="F199" t="s">
         <v>12</v>
       </c>
       <c r="G199" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="H199" t="s">
-        <v>206</v>
-      </c>
-      <c r="I199" t="s">
-        <v>587</v>
+        <v>528</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>588</v>
+        <v>517</v>
       </c>
       <c r="B200" t="s">
         <v>8</v>
       </c>
       <c r="C200" t="s">
-        <v>202</v>
+        <v>173</v>
       </c>
       <c r="D200" t="s">
-        <v>589</v>
+        <v>518</v>
       </c>
       <c r="E200" t="s">
-        <v>583</v>
+        <v>12</v>
       </c>
       <c r="F200" t="s">
         <v>12</v>
       </c>
       <c r="G200" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="H200" t="s">
-        <v>206</v>
-      </c>
-      <c r="I200" t="s">
-        <v>590</v>
+        <v>173</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>591</v>
+        <v>191</v>
       </c>
       <c r="B201" t="s">
         <v>8</v>
       </c>
       <c r="C201" t="s">
-        <v>202</v>
+        <v>173</v>
       </c>
       <c r="D201" t="s">
-        <v>592</v>
+        <v>192</v>
       </c>
       <c r="E201" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="F201" t="s">
         <v>12</v>
       </c>
       <c r="G201" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="H201" t="s">
-        <v>206</v>
+        <v>173</v>
       </c>
       <c r="I201" t="s">
-        <v>593</v>
+        <v>194</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>594</v>
+        <v>89</v>
       </c>
       <c r="B202" t="s">
         <v>8</v>
       </c>
       <c r="C202" t="s">
-        <v>595</v>
+        <v>173</v>
       </c>
       <c r="D202" t="s">
-        <v>596</v>
+        <v>174</v>
       </c>
       <c r="E202" t="s">
-        <v>597</v>
+        <v>175</v>
       </c>
       <c r="F202" t="s">
         <v>12</v>
       </c>
       <c r="G202" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="H202" t="s">
-        <v>598</v>
+        <v>173</v>
       </c>
       <c r="I202" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A203" t="s">
-        <v>600</v>
-      </c>
-      <c r="B203" t="s">
-        <v>8</v>
-      </c>
-      <c r="C203" t="s">
-        <v>557</v>
-      </c>
-      <c r="D203" t="s">
-        <v>601</v>
-      </c>
-      <c r="E203" t="s">
-        <v>318</v>
-      </c>
-      <c r="F203" t="s">
-        <v>12</v>
-      </c>
-      <c r="G203" t="s">
-        <v>205</v>
-      </c>
-      <c r="H203" t="s">
-        <v>559</v>
-      </c>
-      <c r="I203" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A204" t="s">
-        <v>603</v>
-      </c>
-      <c r="B204" t="s">
-        <v>8</v>
-      </c>
-      <c r="C204" t="s">
-        <v>557</v>
-      </c>
-      <c r="D204" t="s">
-        <v>604</v>
-      </c>
-      <c r="E204" t="s">
-        <v>318</v>
-      </c>
-      <c r="F204" t="s">
-        <v>12</v>
-      </c>
-      <c r="G204" t="s">
-        <v>205</v>
-      </c>
-      <c r="H204" t="s">
-        <v>559</v>
-      </c>
-      <c r="I204" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A205" t="s">
-        <v>606</v>
-      </c>
-      <c r="B205" t="s">
-        <v>8</v>
-      </c>
-      <c r="C205" t="s">
-        <v>557</v>
-      </c>
-      <c r="D205" t="s">
-        <v>607</v>
-      </c>
-      <c r="E205" t="s">
-        <v>608</v>
-      </c>
-      <c r="F205" t="s">
-        <v>319</v>
-      </c>
-      <c r="G205" t="s">
-        <v>205</v>
-      </c>
-      <c r="H205" t="s">
-        <v>559</v>
-      </c>
-      <c r="I205" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A206" t="s">
-        <v>610</v>
-      </c>
-      <c r="B206" t="s">
-        <v>8</v>
-      </c>
-      <c r="C206" t="s">
-        <v>557</v>
-      </c>
-      <c r="D206" t="s">
         <v>611</v>
-      </c>
-      <c r="E206" t="s">
-        <v>108</v>
-      </c>
-      <c r="F206" t="s">
-        <v>12</v>
-      </c>
-      <c r="G206" t="s">
-        <v>205</v>
-      </c>
-      <c r="H206" t="s">
-        <v>559</v>
       </c>
     </row>
   </sheetData>
